--- a/outputs/ML_Results/dist_commute/Madrid.xlsx
+++ b/outputs/ML_Results/dist_commute/Madrid.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ13422100" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ15480073" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ17546958" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ19672190" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ21784664" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ23863111" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ25975710" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ28097504" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ30214431" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ48304744" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ50807931" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ53404967" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ56012905" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ58687873" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ02108541" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ05082165" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ07861240" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ10682892" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Madrid.xlsx
+++ b/outputs/ML_Results/dist_commute/Madrid.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ48304744" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ50807931" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ53404967" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ56012905" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ58687873" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ02108541" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ05082165" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ07861240" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ10682892" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ04329693" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ08319308" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ12464417" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ14580421" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ16753561" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ18852349" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ21064998" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ23193388" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ25320669" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7652.648756386747</v>
+        <v>8076.618649455464</v>
       </c>
       <c r="C2" t="n">
-        <v>1.089270085417544e-44</v>
+        <v>1.31222722818614e-53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>637.5765581085382</v>
+        <v>-1294.053640265963</v>
       </c>
       <c r="C3" t="n">
-        <v>3.884883195411272e-05</v>
+        <v>1.857638051361431e-15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1174.607292108065</v>
+        <v>-694.0332030203372</v>
       </c>
       <c r="C4" t="n">
-        <v>2.398568361328071e-14</v>
+        <v>1.663994561179969e-11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1340.070469838731</v>
+        <v>-97.42365268707481</v>
       </c>
       <c r="C5" t="n">
-        <v>5.543216048075186e-16</v>
+        <v>0.3259053649207989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13.7451108113785</v>
+        <v>-123.2185279833068</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6426313728778694</v>
+        <v>0.5077413248638832</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-958.5223161730509</v>
+        <v>144.3733583847808</v>
       </c>
       <c r="C7" t="n">
-        <v>2.616461709463496e-44</v>
+        <v>0.1688041960550694</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-19.51241738262675</v>
+        <v>14.13125833381154</v>
       </c>
       <c r="C8" t="n">
-        <v>1.09014588242509e-10</v>
+        <v>0.6366448414754524</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>170.2422792594532</v>
+        <v>-942.9474742353068</v>
       </c>
       <c r="C9" t="n">
-        <v>2.601511528362999e-29</v>
+        <v>1.811579899674132e-42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>343.1604932392229</v>
+        <v>-18.64560417926104</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.011619164464024e-09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02561813389584455</v>
+        <v>171.894560856145</v>
       </c>
       <c r="C11" t="n">
-        <v>6.646158631599223e-07</v>
+        <v>1.56608901872534e-28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.043302662749047e-06</v>
+        <v>336.244444086639</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6272569355993929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-9.254762043353242</v>
+        <v>0.02899505545242642</v>
       </c>
       <c r="C13" t="n">
-        <v>4.424710722083313e-07</v>
+        <v>2.365198126472821e-08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.816542404141579</v>
+        <v>-1.398088282068493e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0873551597768132</v>
+        <v>0.6094694487129868</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1970.692225155892</v>
+        <v>-10.09342765514015</v>
       </c>
       <c r="C15" t="n">
-        <v>2.60186779675735e-06</v>
+        <v>4.343928191692053e-08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3655.75299580174</v>
+        <v>5.290201472667128</v>
       </c>
       <c r="C16" t="n">
-        <v>5.000955191939699e-36</v>
+        <v>0.1197315140401189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2048.13506571876</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.201593374112886e-06</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3674.373195220649</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.001249604366204e-35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>2260.73231873141</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06364511649835305</v>
+      <c r="B19" t="n">
+        <v>967.1484199910183</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4263960485127247</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +736,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7418.389160977963</v>
+        <v>7882.982970205372</v>
       </c>
       <c r="C2" t="n">
-        <v>8.365414229367407e-42</v>
+        <v>1.512927937834922e-51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>544.6631704307204</v>
+        <v>-1447.772172164725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004987708124231429</v>
+        <v>6.785401392376252e-19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1193.143643243389</v>
+        <v>-783.5627096668024</v>
       </c>
       <c r="C4" t="n">
-        <v>1.608902520906759e-14</v>
+        <v>3.639752708870859e-14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1269.161966374802</v>
+        <v>-185.6721123102516</v>
       </c>
       <c r="C5" t="n">
-        <v>2.526802343945879e-14</v>
+        <v>0.0618785384105817</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.509146655876009</v>
+        <v>92.68357273250712</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7497070269358308</v>
+        <v>0.6169696250844343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-959.1043753575246</v>
+        <v>179.3287770118465</v>
       </c>
       <c r="C7" t="n">
-        <v>6.914200871964726e-44</v>
+        <v>0.08810610002918604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-19.87873546325637</v>
+        <v>9.429933218038457</v>
       </c>
       <c r="C8" t="n">
-        <v>7.515836613776963e-11</v>
+        <v>0.7528042964600205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>156.7335120850692</v>
+        <v>-1053.185609546303</v>
       </c>
       <c r="C9" t="n">
-        <v>1.192459166929965e-24</v>
+        <v>2.661831741546317e-52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>343.5696650157831</v>
+        <v>-17.61534753603256</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8.205582376008665e-09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02953569777596422</v>
+        <v>164.058985073155</v>
       </c>
       <c r="C11" t="n">
-        <v>1.25730615335611e-08</v>
+        <v>6.280574480641176e-26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.188602415928028e-06</v>
+        <v>339.9732059025173</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3086741420027009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.830013525937009</v>
+        <v>0.03199441534777991</v>
       </c>
       <c r="C13" t="n">
-        <v>1.526097308278887e-06</v>
+        <v>7.613008332569468e-10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.10041155526709</v>
+        <v>1.79494792294213e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01695896151256156</v>
+        <v>0.9947212170669539</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2123.698015505462</v>
+        <v>-9.645021849167449</v>
       </c>
       <c r="C15" t="n">
-        <v>5.201256135772178e-07</v>
+        <v>1.647116554329573e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3690.21886333573</v>
+        <v>7.038958527253527</v>
       </c>
       <c r="C16" t="n">
-        <v>4.447624377180322e-36</v>
+        <v>0.03701561106693833</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1957.763095112734</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.977861442885977e-06</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3738.851729113638</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.961103361742627e-37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1644.300080102938</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.175868865411388</v>
+      <c r="B19" t="n">
+        <v>1961.220438009549</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1074315570866993</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1006,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7259.018647208931</v>
+        <v>7985.850251205976</v>
       </c>
       <c r="C2" t="n">
-        <v>3.240957336729154e-40</v>
+        <v>4.683865869766741e-52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>391.2698823629885</v>
+        <v>-1182.061286898962</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01158126498552081</v>
+        <v>3.507818986092639e-13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1010.233629836906</v>
+        <v>-629.1463461454564</v>
       </c>
       <c r="C4" t="n">
-        <v>5.250631541939591e-11</v>
+        <v>1.156411752620961e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1163.797755522391</v>
+        <v>-26.00213333637745</v>
       </c>
       <c r="C5" t="n">
-        <v>1.881214308595275e-12</v>
+        <v>0.7938202672688258</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.48798285782594</v>
+        <v>-123.0008758041242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5546630726408524</v>
+        <v>0.5114155684004458</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1014.979010345834</v>
+        <v>188.2812218732851</v>
       </c>
       <c r="C7" t="n">
-        <v>1.94610175974701e-49</v>
+        <v>0.07287109109409826</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16.84593028550975</v>
+        <v>23.24819379478172</v>
       </c>
       <c r="C8" t="n">
-        <v>3.307590208551671e-08</v>
+        <v>0.4353332427239449</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>169.3019606556613</v>
+        <v>-996.2575461959905</v>
       </c>
       <c r="C9" t="n">
-        <v>6.503251798333127e-29</v>
+        <v>4.55494809021795e-47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>343.5063188992312</v>
+        <v>-21.56657592851724</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.80725970117322e-12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03158285834871764</v>
+        <v>149.216932213591</v>
       </c>
       <c r="C11" t="n">
-        <v>1.010733562137596e-09</v>
+        <v>1.32383394618439e-21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.0153899713961e-06</v>
+        <v>344.2750011821393</v>
       </c>
       <c r="C12" t="n">
-        <v>0.633610612418907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.5247028074625</v>
+        <v>0.02886919414543727</v>
       </c>
       <c r="C13" t="n">
-        <v>3.271861457744284e-06</v>
+        <v>2.99792540163832e-08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.09731439902116</v>
+        <v>6.254006040213046e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003072236524415898</v>
+        <v>0.8183968389512375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2140.870494053638</v>
+        <v>-9.152335629520053</v>
       </c>
       <c r="C15" t="n">
-        <v>3.659840851080025e-07</v>
+        <v>8.064029574954591e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3709.351332143046</v>
+        <v>6.490393858768016</v>
       </c>
       <c r="C16" t="n">
-        <v>5.321644242482876e-37</v>
+        <v>0.05818767594754441</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2439.96567519776</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.44940880209035e-09</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3795.359610381458</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.921721095306144e-38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1086.091001547667</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3684323755111768</v>
+      <c r="B19" t="n">
+        <v>3141.627605230412</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.009797422576035018</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1276,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7241.602230822657</v>
+        <v>7883.316494489652</v>
       </c>
       <c r="C2" t="n">
-        <v>3.496764949833163e-40</v>
+        <v>9.818524592868472e-51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>416.021632028731</v>
+        <v>-1336.439269449276</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007508592211892048</v>
+        <v>2.189827038870796e-16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1099.501279724957</v>
+        <v>-726.9203131630998</v>
       </c>
       <c r="C4" t="n">
-        <v>1.130799781199898e-12</v>
+        <v>1.617359233971211e-12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.036484091464</v>
+        <v>-81.43070503295941</v>
       </c>
       <c r="C5" t="n">
-        <v>1.197280590860336e-13</v>
+        <v>0.410387075821642</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.89826407769655</v>
+        <v>-250.9218922617833</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4016850180034611</v>
+        <v>0.1763050542708762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-994.7012971534321</v>
+        <v>226.5037465728782</v>
       </c>
       <c r="C7" t="n">
-        <v>1.88355897504567e-47</v>
+        <v>0.030326441651654</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-19.46724531206264</v>
+        <v>4.432390467227449</v>
       </c>
       <c r="C8" t="n">
-        <v>1.346680396227543e-10</v>
+        <v>0.8816201774175783</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>179.4775359240844</v>
+        <v>-981.9307640571409</v>
       </c>
       <c r="C9" t="n">
-        <v>3.645146910172619e-32</v>
+        <v>4.822227526013072e-46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.2143814062705</v>
+        <v>-17.31922551382722</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.214963118999063e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03579502875786855</v>
+        <v>143.1334375349541</v>
       </c>
       <c r="C11" t="n">
-        <v>3.523268282785335e-12</v>
+        <v>2.982382935613235e-20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.350246710605511e-06</v>
+        <v>337.9532169673944</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1175516442621587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.513484527061841</v>
+        <v>0.0270633193870444</v>
       </c>
       <c r="C13" t="n">
-        <v>3.940346930846141e-05</v>
+        <v>2.087895907924997e-07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.911641996394088</v>
+        <v>-9.125334414388967e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008758434372636089</v>
+        <v>0.7360924849201287</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1975.508859045203</v>
+        <v>-9.588499938384373</v>
       </c>
       <c r="C15" t="n">
-        <v>2.672093202789776e-06</v>
+        <v>2.150484547334576e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4183.210813605685</v>
+        <v>6.828119296420795</v>
       </c>
       <c r="C16" t="n">
-        <v>1.60017592751881e-46</v>
+        <v>0.04585836737092358</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1710.561962273725</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.272755157398852e-05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3595.817226554638</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.267238920251165e-34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1676.605821082433</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1672490423759175</v>
+      <c r="B19" t="n">
+        <v>1527.427624645134</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2126097531222599</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1546,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7500.656998771476</v>
+        <v>7587.70254824903</v>
       </c>
       <c r="C2" t="n">
-        <v>1.44839665119453e-42</v>
+        <v>2.077328334617161e-47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>281.100586518363</v>
+        <v>-1136.657825537773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07204253524919325</v>
+        <v>2.68018801699809e-12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.5190838808367</v>
+        <v>-775.5622778507186</v>
       </c>
       <c r="C4" t="n">
-        <v>1.141185988231208e-09</v>
+        <v>6.579320723475659e-14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.9619287057079</v>
+        <v>-142.4313212374349</v>
       </c>
       <c r="C5" t="n">
-        <v>7.081884767954986e-09</v>
+        <v>0.1526037233391596</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.370459560249039</v>
+        <v>-163.1437945909262</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9100043059204198</v>
+        <v>0.3817325116542117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-982.568035970068</v>
+        <v>269.331308439229</v>
       </c>
       <c r="C7" t="n">
-        <v>4.188553469226333e-46</v>
+        <v>0.01029158424293968</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.69687001632094</v>
+        <v>14.84975995624073</v>
       </c>
       <c r="C8" t="n">
-        <v>6.632681072927927e-09</v>
+        <v>0.6178237117847414</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.641668348967</v>
+        <v>-934.2504898798013</v>
       </c>
       <c r="C9" t="n">
-        <v>2.86713484997744e-27</v>
+        <v>1.073772244950603e-41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.9658900541219</v>
+        <v>-18.17491490777596</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.677696372129587e-09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03149580471739659</v>
+        <v>154.9218936299459</v>
       </c>
       <c r="C11" t="n">
-        <v>1.020018594560121e-09</v>
+        <v>1.270702668529773e-23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.711574163573943e-06</v>
+        <v>348.2716552773012</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08660252910415978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-10.00100736275258</v>
+        <v>0.03531562600075953</v>
       </c>
       <c r="C13" t="n">
-        <v>4.608224867769961e-08</v>
+        <v>9.592744086466555e-12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.856822931102379</v>
+        <v>7.980023730733173e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009673103336729511</v>
+        <v>0.7699008659326952</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2287.040137114481</v>
+        <v>-9.698192862663426</v>
       </c>
       <c r="C15" t="n">
-        <v>5.583643844117007e-08</v>
+        <v>1.553795593408403e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3557.631405745044</v>
+        <v>9.000393761115713</v>
       </c>
       <c r="C16" t="n">
-        <v>7.486024290873915e-34</v>
+        <v>0.008302993652698553</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2577.110531573566</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.28096159332044e-09</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3829.654911054135</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.894113945885654e-39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>2147.259616485075</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07835295894362501</v>
+      <c r="B19" t="n">
+        <v>2231.746535517279</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.06847368482844626</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1816,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7946.176321368862</v>
+        <v>7793.146675114958</v>
       </c>
       <c r="C2" t="n">
-        <v>3.507578097759125e-48</v>
+        <v>7.11400510632015e-50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>626.4067665803389</v>
+        <v>-1304.869390742601</v>
       </c>
       <c r="C3" t="n">
-        <v>5.489470865053758e-05</v>
+        <v>8.115658108720802e-16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1252.05535990991</v>
+        <v>-751.7130652610058</v>
       </c>
       <c r="C4" t="n">
-        <v>4.738826217896248e-16</v>
+        <v>2.797819350343265e-13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1319.392494787922</v>
+        <v>-165.4112283653816</v>
       </c>
       <c r="C5" t="n">
-        <v>1.487314999099412e-15</v>
+        <v>0.0940064266044178</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.45713251217452</v>
+        <v>-34.10139675052631</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7244312860594417</v>
+        <v>0.8556184310520913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1020.680167859759</v>
+        <v>129.0326359670826</v>
       </c>
       <c r="C7" t="n">
-        <v>3.999923210080015e-50</v>
+        <v>0.216495575485131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-18.09372826365743</v>
+        <v>20.60510793040782</v>
       </c>
       <c r="C8" t="n">
-        <v>2.256126093328714e-09</v>
+        <v>0.4893484373718684</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>149.5988644208655</v>
+        <v>-1051.77536500518</v>
       </c>
       <c r="C9" t="n">
-        <v>4.242124870884802e-23</v>
+        <v>1.299889158059036e-52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>334.3971451230306</v>
+        <v>-19.17798384436819</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3.130403198809031e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02831776330218917</v>
+        <v>157.5138004860142</v>
       </c>
       <c r="C11" t="n">
-        <v>3.701760899698703e-08</v>
+        <v>5.105899565068428e-24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-8.95509976365598e-07</v>
+        <v>339.2991728891359</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6869135365725318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-11.12987183443685</v>
+        <v>0.03478535102170287</v>
       </c>
       <c r="C13" t="n">
-        <v>9.790026386754795e-10</v>
+        <v>1.972564087078484e-11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.685377443681027</v>
+        <v>-3.235024515768896e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09447504008413615</v>
+        <v>0.9048645007356839</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2321.042924573333</v>
+        <v>-8.885720588381222</v>
       </c>
       <c r="C15" t="n">
-        <v>3.472218958882121e-08</v>
+        <v>1.428332344600941e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3702.04395938001</v>
+        <v>9.296692708302302</v>
       </c>
       <c r="C16" t="n">
-        <v>4.671856849485583e-37</v>
+        <v>0.006728830324991138</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2291.664920645473</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.031514665908777e-08</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-4057.6358854632</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.581625674801018e-43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1771.514068524223</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1436629193338204</v>
+      <c r="B19" t="n">
+        <v>1703.983958514149</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1598507630264897</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2086,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7168.436901966719</v>
+        <v>7132.350864679921</v>
       </c>
       <c r="C2" t="n">
-        <v>1.7296106039774e-39</v>
+        <v>3.547540524644973e-42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>490.5558808321196</v>
+        <v>-1281.714789963264</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001600310715866807</v>
+        <v>2.188342411777651e-15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1101.262466548729</v>
+        <v>-792.0667026009012</v>
       </c>
       <c r="C4" t="n">
-        <v>1.019713542495145e-12</v>
+        <v>1.089375467652283e-14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1146.10261718029</v>
+        <v>-179.500008248864</v>
       </c>
       <c r="C5" t="n">
-        <v>4.690599336869328e-12</v>
+        <v>0.06854409277447339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.962216275873971</v>
+        <v>-21.87937178143909</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9473822374700328</v>
+        <v>0.9062751093728976</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1030.475787709396</v>
+        <v>186.1999063440197</v>
       </c>
       <c r="C7" t="n">
-        <v>7.752639014848744e-51</v>
+        <v>0.07482920208727814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.75876148527706</v>
+        <v>10.34728223655357</v>
       </c>
       <c r="C8" t="n">
-        <v>4.742418475619859e-09</v>
+        <v>0.727755445200041</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.8019348694861</v>
+        <v>-1028.125546670432</v>
       </c>
       <c r="C9" t="n">
-        <v>5.407311105742573e-26</v>
+        <v>1.436328299390342e-50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>349.6078577604893</v>
+        <v>-17.94580390216823</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3.594658844965814e-09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03720199694832071</v>
+        <v>154.7687036993745</v>
       </c>
       <c r="C11" t="n">
-        <v>4.970033853856011e-13</v>
+        <v>1.102563122513282e-23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.592467920776251e-07</v>
+        <v>348.8530465733907</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6879916056989996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.046922472505905</v>
+        <v>0.03258522023293501</v>
       </c>
       <c r="C13" t="n">
-        <v>1.089952338736511e-05</v>
+        <v>2.911890351760696e-10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.75941218427445</v>
+        <v>3.730471266320964e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005785946520855121</v>
+        <v>0.8900058959358086</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2214.30417263475</v>
+        <v>-8.440068892316592</v>
       </c>
       <c r="C15" t="n">
-        <v>1.739887520536236e-07</v>
+        <v>4.447136456189731e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4103.890251197398</v>
+        <v>13.40116636090526</v>
       </c>
       <c r="C16" t="n">
-        <v>1.076293246267004e-44</v>
+        <v>8.702540992138266e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1655.701232583486</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.622703801514188e-05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3754.1484162746</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.250621235418182e-37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>2213.768412123947</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06850119398423711</v>
+      <c r="B19" t="n">
+        <v>813.021310739734</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5014423178031695</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2356,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6894.681944698797</v>
+        <v>7362.537439070549</v>
       </c>
       <c r="C2" t="n">
-        <v>1.242544635563697e-36</v>
+        <v>1.728489868123767e-44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>555.0736643390037</v>
+        <v>-1110.653898681402</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003398341813171755</v>
+        <v>1.311994487046321e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1136.962526411001</v>
+        <v>-745.6998686157581</v>
       </c>
       <c r="C4" t="n">
-        <v>1.421440136796048e-13</v>
+        <v>3.960028719026234e-13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1280.539019856188</v>
+        <v>-140.0136907856905</v>
       </c>
       <c r="C5" t="n">
-        <v>9.36851695256226e-15</v>
+        <v>0.1565853111331599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.213235134204965</v>
+        <v>-24.32530999417588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9406493516386882</v>
+        <v>0.8958860947094143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1069.681530238265</v>
+        <v>232.2051833780391</v>
       </c>
       <c r="C7" t="n">
-        <v>2.159262955858531e-54</v>
+        <v>0.02608345339007719</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-19.86044680289969</v>
+        <v>-32.26567817400054</v>
       </c>
       <c r="C8" t="n">
-        <v>6.624179988354813e-11</v>
+        <v>0.2775119220071246</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>149.0940890044297</v>
+        <v>-1027.919702845023</v>
       </c>
       <c r="C9" t="n">
-        <v>7.97298505025194e-23</v>
+        <v>2.300706220575129e-50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>356.0116294321224</v>
+        <v>-19.4614216897122</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.65003138951332e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03661320522127505</v>
+        <v>149.3205111720011</v>
       </c>
       <c r="C11" t="n">
-        <v>1.50911061618533e-12</v>
+        <v>2.92650707874803e-22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.116065188048723e-06</v>
+        <v>352.0074747012404</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3287006685069749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.365981378906699</v>
+        <v>0.03344050821421948</v>
       </c>
       <c r="C13" t="n">
-        <v>5.864844865203585e-05</v>
+        <v>1.165875094304375e-10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.84871372718463</v>
+        <v>-1.841196382599566e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001623441335232156</v>
+        <v>0.4996613308557591</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1748.212960291786</v>
+        <v>-7.677010727100239</v>
       </c>
       <c r="C15" t="n">
-        <v>3.765646455129733e-05</v>
+        <v>3.20960526475814e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3832.969977560267</v>
+        <v>13.47446694580788</v>
       </c>
       <c r="C16" t="n">
-        <v>4.158212349165271e-39</v>
+        <v>9.418325602934699e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2194.3101212658</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.117690673410074e-07</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3949.688343633027</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.90077978647913e-41</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1985.639648449529</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1045573689965728</v>
+      <c r="B19" t="n">
+        <v>1816.160493567918</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1354544974557464</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2626,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7602.229000826055</v>
+        <v>7703.106708080709</v>
       </c>
       <c r="C2" t="n">
-        <v>1.518732297236866e-43</v>
+        <v>4.858239287559643e-49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532.115525818324</v>
+        <v>-1318.862717440631</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006150597461627449</v>
+        <v>7.342799642165104e-16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1083.702364856265</v>
+        <v>-837.1800125812701</v>
       </c>
       <c r="C4" t="n">
-        <v>2.194146366089332e-12</v>
+        <v>5.402294215883138e-16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1253.450941794645</v>
+        <v>-189.4341175826227</v>
       </c>
       <c r="C5" t="n">
-        <v>3.806725640274966e-14</v>
+        <v>0.05635242527870028</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.93036365539005</v>
+        <v>25.30193822513968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6648943124261584</v>
+        <v>0.8905746710089171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1029.122915730839</v>
+        <v>154.2595798210507</v>
       </c>
       <c r="C7" t="n">
-        <v>3.897363007294934e-50</v>
+        <v>0.1389649393622127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-20.55373617019317</v>
+        <v>3.024706000845534</v>
       </c>
       <c r="C8" t="n">
-        <v>1.844186784598567e-11</v>
+        <v>0.9188973526934993</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.60726028682</v>
+        <v>-1025.640543875908</v>
       </c>
       <c r="C9" t="n">
-        <v>1.489736136732623e-25</v>
+        <v>3.927839409432578e-50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>341.5813662122807</v>
+        <v>-19.61907760707451</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.147122872554093e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02852492918632808</v>
+        <v>147.332603638043</v>
       </c>
       <c r="C11" t="n">
-        <v>4.397014402390896e-08</v>
+        <v>6.304884703989882e-22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.009806499744437e-06</v>
+        <v>350.2835046669212</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3587184695166391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.719687070105739</v>
+        <v>0.03512320044635154</v>
       </c>
       <c r="C13" t="n">
-        <v>2.158386472743511e-06</v>
+        <v>1.212455075990703e-11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.8673857729604</v>
+        <v>5.936471970463138e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00963833483175845</v>
+        <v>0.8275674887847398</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2467.229327432045</v>
+        <v>-8.350540157030064</v>
       </c>
       <c r="C15" t="n">
-        <v>6.10485545728068e-09</v>
+        <v>5.785603428599589e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3698.744711283937</v>
+        <v>9.597021661659561</v>
       </c>
       <c r="C16" t="n">
-        <v>4.922860350168884e-36</v>
+        <v>0.004729491937343698</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2533.045414672746</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.961503329109673e-09</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-3919.841591241342</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.092379548521905e-41</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>2781.823936409689</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.02205274019624334</v>
+      <c r="B19" t="n">
+        <v>2283.148014941621</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.06018944103152862</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Madrid.xlsx
+++ b/outputs/ML_Results/dist_commute/Madrid.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ04329693" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ08319308" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ12464417" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ14580421" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ16753561" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ18852349" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ21064998" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ23193388" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ25320669" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ59065042" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ00717634" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ02617433" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ04767019" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ06911913" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ09673086" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ11663619" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ13767420" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ15850600" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8076.618649455464</v>
+        <v>8147.339643203286</v>
       </c>
       <c r="C2" t="n">
-        <v>1.31222722818614e-53</v>
+        <v>4.429831831436137e-56</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1294.053640265963</v>
+        <v>-1294.792309204212</v>
       </c>
       <c r="C3" t="n">
-        <v>1.857638051361431e-15</v>
+        <v>1.788405664907987e-15</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-694.0332030203372</v>
+        <v>-694.5431832551232</v>
       </c>
       <c r="C4" t="n">
-        <v>1.663994561179969e-11</v>
+        <v>1.606546415152939e-11</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-97.42365268707481</v>
+        <v>-95.41605963124427</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3259053649207989</v>
+        <v>0.3358147442968349</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123.2185279833068</v>
+        <v>-123.4621956714186</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5077413248638832</v>
+        <v>0.5068997540680867</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>144.3733583847808</v>
+        <v>147.0527987119874</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1688041960550694</v>
+        <v>0.1608184966721143</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.13125833381154</v>
+        <v>13.38455945921489</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6366448414754524</v>
+        <v>0.6544012010478133</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-942.9474742353068</v>
+        <v>-943.5286704936444</v>
       </c>
       <c r="C9" t="n">
-        <v>1.811579899674132e-42</v>
+        <v>1.595862075658267e-42</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.64560417926104</v>
+        <v>-18.66524058070565</v>
       </c>
       <c r="C10" t="n">
-        <v>1.011619164464024e-09</v>
+        <v>9.702707940893742e-10</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>171.894560856145</v>
+        <v>171.6826597771854</v>
       </c>
       <c r="C11" t="n">
-        <v>1.56608901872534e-28</v>
+        <v>1.789552216534396e-28</v>
       </c>
     </row>
     <row r="12">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>336.244444086639</v>
+        <v>334.7259094130939</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02899505545242642</v>
+        <v>0.02962095436620837</v>
       </c>
       <c r="C13" t="n">
-        <v>2.365198126472821e-08</v>
+        <v>7.926021347278447e-09</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.398088282068493e-06</v>
+        <v>-1.491542664874018e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6094694487129868</v>
+        <v>0.585421634597082</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.09342765514015</v>
+        <v>-10.30467008145673</v>
       </c>
       <c r="C15" t="n">
-        <v>4.343928191692053e-08</v>
+        <v>1.606156075117273e-08</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.290201472667128</v>
+        <v>5.073300104840953</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1197315140401189</v>
+        <v>0.1344087238867675</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2048.13506571876</v>
+        <v>-2036.729564420369</v>
       </c>
       <c r="C17" t="n">
-        <v>1.201593374112886e-06</v>
+        <v>1.357389266706023e-06</v>
       </c>
     </row>
     <row r="18">
@@ -674,23 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3674.373195220649</v>
+        <v>-3692.52207122635</v>
       </c>
       <c r="C18" t="n">
-        <v>1.001249604366204e-35</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>967.1484199910183</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4263960485127247</v>
+        <v>2.86154316542018e-36</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7882.982970205372</v>
+        <v>8024.065984695533</v>
       </c>
       <c r="C2" t="n">
-        <v>1.512927937834922e-51</v>
+        <v>7.868526938700544e-55</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1447.772172164725</v>
+        <v>-1449.412812664907</v>
       </c>
       <c r="C3" t="n">
-        <v>6.785401392376252e-19</v>
+        <v>6.20001377043387e-19</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-783.5627096668024</v>
+        <v>-784.7427227112296</v>
       </c>
       <c r="C4" t="n">
-        <v>3.639752708870859e-14</v>
+        <v>3.333038045427923e-14</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-185.6721123102516</v>
+        <v>-181.578717038299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0618785384105817</v>
+        <v>0.06776587381233899</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92.68357273250712</v>
+        <v>90.87786839415207</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6169696250844343</v>
+        <v>0.6238480209542079</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.3287770118465</v>
+        <v>184.5756824273831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08810610002918604</v>
+        <v>0.07905813030001753</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.429933218038457</v>
+        <v>8.104364345922303</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7528042964600205</v>
+        <v>0.7865689498823645</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1053.185609546303</v>
+        <v>-1054.516756026216</v>
       </c>
       <c r="C9" t="n">
-        <v>2.661831741546317e-52</v>
+        <v>1.962339727093595e-52</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.61534753603256</v>
+        <v>-17.6729207377672</v>
       </c>
       <c r="C10" t="n">
-        <v>8.205582376008665e-09</v>
+        <v>7.325712867360556e-09</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.058985073155</v>
+        <v>163.62374268613</v>
       </c>
       <c r="C11" t="n">
-        <v>6.280574480641176e-26</v>
+        <v>8.323176715029065e-26</v>
       </c>
     </row>
     <row r="12">
@@ -866,7 +853,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>339.9732059025173</v>
+        <v>336.8921849136386</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03199441534777991</v>
+        <v>0.03327511403833362</v>
       </c>
       <c r="C13" t="n">
-        <v>7.613008332569468e-10</v>
+        <v>9.479382583239562e-11</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.79494792294213e-08</v>
+        <v>-1.690871577873939e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9947212170669539</v>
+        <v>0.9502602796715525</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.645021849167449</v>
+        <v>-10.0622004218784</v>
       </c>
       <c r="C15" t="n">
-        <v>1.647116554329573e-07</v>
+        <v>3.46045154742004e-08</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.038958527253527</v>
+        <v>6.61778306348436</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03701561106693833</v>
+        <v>0.04921981575702555</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1957.763095112734</v>
+        <v>-1934.485961140168</v>
       </c>
       <c r="C17" t="n">
-        <v>3.977861442885977e-06</v>
+        <v>5.109076710221818e-06</v>
       </c>
     </row>
     <row r="18">
@@ -944,23 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3738.851729113638</v>
+        <v>-3775.964966236744</v>
       </c>
       <c r="C18" t="n">
-        <v>5.961103361742627e-37</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1961.220438009549</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1074315570866993</v>
+        <v>7.142582496674541e-38</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7985.850251205976</v>
+        <v>8215.562924384107</v>
       </c>
       <c r="C2" t="n">
-        <v>4.683865869766741e-52</v>
+        <v>1.554411776822951e-56</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1182.061286898962</v>
+        <v>-1183.434707944215</v>
       </c>
       <c r="C3" t="n">
-        <v>3.507818986092639e-13</v>
+        <v>3.30779668918556e-13</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-629.1463461454564</v>
+        <v>-630.6780278089909</v>
       </c>
       <c r="C4" t="n">
-        <v>1.156411752620961e-09</v>
+        <v>1.056618770829637e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-26.00213333637745</v>
+        <v>-19.2754452427013</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7938202672688258</v>
+        <v>0.8463378330037995</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123.0008758041242</v>
+        <v>-124.0508473691285</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5114155684004458</v>
+        <v>0.5078489023919741</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.2812218732851</v>
+        <v>197.1870957878343</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07287109109409826</v>
+        <v>0.06019763038638299</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.24819379478172</v>
+        <v>21.06798709211228</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4353332427239449</v>
+        <v>0.4794605836169676</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-996.2575461959905</v>
+        <v>-998.0376289536549</v>
       </c>
       <c r="C9" t="n">
-        <v>4.55494809021795e-47</v>
+        <v>3.157803860189322e-47</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-21.56657592851724</v>
+        <v>-21.61085234242476</v>
       </c>
       <c r="C10" t="n">
-        <v>1.80725970117322e-12</v>
+        <v>1.633813232519494e-12</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>149.216932213591</v>
+        <v>148.5104811724362</v>
       </c>
       <c r="C11" t="n">
-        <v>1.32383394618439e-21</v>
+        <v>2.030450300834753e-21</v>
       </c>
     </row>
     <row r="12">
@@ -1136,7 +1110,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>344.2750011821393</v>
+        <v>339.3063601682743</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02886919414543727</v>
+        <v>0.03092666078950145</v>
       </c>
       <c r="C13" t="n">
-        <v>2.99792540163832e-08</v>
+        <v>1.895970084500803e-09</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.254006040213046e-07</v>
+        <v>3.004186742871004e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8183968389512375</v>
+        <v>0.9120889347921913</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.152335629520053</v>
+        <v>-9.845145153347492</v>
       </c>
       <c r="C15" t="n">
-        <v>8.064029574954591e-07</v>
+        <v>8.180710373050831e-08</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.490393858768016</v>
+        <v>5.777559949515691</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05818767594754441</v>
+        <v>0.09072056329427078</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2439.96567519776</v>
+        <v>-2402.114100200882</v>
       </c>
       <c r="C17" t="n">
-        <v>8.44940880209035e-09</v>
+        <v>1.404064576674021e-08</v>
       </c>
     </row>
     <row r="18">
@@ -1214,23 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3795.359610381458</v>
+        <v>-3855.378605082624</v>
       </c>
       <c r="C18" t="n">
-        <v>4.921721095306144e-38</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3141.627605230412</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.009797422576035018</v>
+        <v>2.033933962581954e-39</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7883.316494489652</v>
+        <v>7992.258836818523</v>
       </c>
       <c r="C2" t="n">
-        <v>9.818524592868472e-51</v>
+        <v>1.615056331729581e-53</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1336.439269449276</v>
+        <v>-1337.55619129257</v>
       </c>
       <c r="C3" t="n">
-        <v>2.189827038870796e-16</v>
+        <v>2.067138405204317e-16</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-726.9203131630998</v>
+        <v>-728.0473094467933</v>
       </c>
       <c r="C4" t="n">
-        <v>1.617359233971211e-12</v>
+        <v>1.492338715604702e-12</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-81.43070503295941</v>
+        <v>-78.66732096438304</v>
       </c>
       <c r="C5" t="n">
-        <v>0.410387075821642</v>
+        <v>0.4263397581630883</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-250.9218922617833</v>
+        <v>-252.0487644478199</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1763050542708762</v>
+        <v>0.1743690975148731</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>226.5037465728782</v>
+        <v>230.9780669288645</v>
       </c>
       <c r="C7" t="n">
-        <v>0.030326441651654</v>
+        <v>0.02711445923994765</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.432390467227449</v>
+        <v>3.336562251394405</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8816201774175783</v>
+        <v>0.9107067993658339</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-981.9307640571409</v>
+        <v>-982.6062838798487</v>
       </c>
       <c r="C9" t="n">
-        <v>4.822227526013072e-46</v>
+        <v>4.172468637830169e-46</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.31922551382722</v>
+        <v>-17.33735492398671</v>
       </c>
       <c r="C10" t="n">
-        <v>1.214963118999063e-08</v>
+        <v>1.173051019772845e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>143.1334375349541</v>
+        <v>142.7639302510814</v>
       </c>
       <c r="C11" t="n">
-        <v>2.982382935613235e-20</v>
+        <v>3.666314839895085e-20</v>
       </c>
     </row>
     <row r="12">
@@ -1406,7 +1367,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>337.9532169673944</v>
+        <v>335.6076945440177</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0270633193870444</v>
+        <v>0.02804089909586956</v>
       </c>
       <c r="C13" t="n">
-        <v>2.087895907924997e-07</v>
+        <v>5.30811455877078e-08</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.125334414388967e-07</v>
+        <v>-1.049897045883297e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7360924849201287</v>
+        <v>0.697953539882981</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.588499938384373</v>
+        <v>-9.905504227451779</v>
       </c>
       <c r="C15" t="n">
-        <v>2.150484547334576e-07</v>
+        <v>6.352391887040005e-08</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.828119296420795</v>
+        <v>6.497482509897125</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04585836737092358</v>
+        <v>0.05668371605222151</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1710.561962273725</v>
+        <v>-1694.828684801587</v>
       </c>
       <c r="C17" t="n">
-        <v>5.272755157398852e-05</v>
+        <v>6.129480841341299e-05</v>
       </c>
     </row>
     <row r="18">
@@ -1484,23 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3595.817226554638</v>
+        <v>-3626.046442028185</v>
       </c>
       <c r="C18" t="n">
-        <v>2.267238920251165e-34</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1527.427624645134</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2126097531222599</v>
+        <v>3.785778285749372e-35</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7587.70254824903</v>
+        <v>7747.136604104569</v>
       </c>
       <c r="C2" t="n">
-        <v>2.077328334617161e-47</v>
+        <v>1.06557634829171e-50</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1136.657825537773</v>
+        <v>-1138.519700804702</v>
       </c>
       <c r="C3" t="n">
-        <v>2.68018801699809e-12</v>
+        <v>2.471362158190186e-12</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-775.5622778507186</v>
+        <v>-776.554886741079</v>
       </c>
       <c r="C4" t="n">
-        <v>6.579320723475659e-14</v>
+        <v>6.121437452029237e-14</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-142.4313212374349</v>
+        <v>-137.9635864836916</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1526037233391596</v>
+        <v>0.1657760259740192</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163.1437945909262</v>
+        <v>-165.1273985302089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3817325116542117</v>
+        <v>0.3759781961698696</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>269.331308439229</v>
+        <v>275.3439025096751</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01029158424293968</v>
+        <v>0.008681051812968478</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.84975995624073</v>
+        <v>13.22539515121863</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6178237117847414</v>
+        <v>0.6566480879297387</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-934.2504898798013</v>
+        <v>-935.4854053050453</v>
       </c>
       <c r="C9" t="n">
-        <v>1.073772244950603e-41</v>
+        <v>8.397328445453597e-42</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.17491490777596</v>
+        <v>-18.22565597207183</v>
       </c>
       <c r="C10" t="n">
-        <v>2.677696372129587e-09</v>
+        <v>2.418154076063631e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.9218936299459</v>
+        <v>154.5083459653789</v>
       </c>
       <c r="C11" t="n">
-        <v>1.270702668529773e-23</v>
+        <v>1.651487488986264e-23</v>
       </c>
     </row>
     <row r="12">
@@ -1676,7 +1624,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>348.2716552773012</v>
+        <v>344.8385343029726</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03531562600075953</v>
+        <v>0.03674132878094442</v>
       </c>
       <c r="C13" t="n">
-        <v>9.592744086466555e-12</v>
+        <v>7.541128497964965e-13</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.980023730733173e-07</v>
+        <v>5.827606616551191e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7699008659326952</v>
+        <v>0.8307010963208965</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.698192862663426</v>
+        <v>-10.16870043609098</v>
       </c>
       <c r="C15" t="n">
-        <v>1.553795593408403e-07</v>
+        <v>2.77976717065774e-08</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.000393761115713</v>
+        <v>8.52148529773606</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008302993652698553</v>
+        <v>0.0121954093725276</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2577.110531573566</v>
+        <v>-2552.336064305032</v>
       </c>
       <c r="C17" t="n">
-        <v>1.28096159332044e-09</v>
+        <v>1.806195425919187e-09</v>
       </c>
     </row>
     <row r="18">
@@ -1754,23 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3829.654911054135</v>
+        <v>-3872.135819369422</v>
       </c>
       <c r="C18" t="n">
-        <v>7.894113945885654e-39</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2231.746535517279</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.06847368482844626</v>
+        <v>6.819119237847786e-40</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7793.146675114958</v>
+        <v>7917.073538872442</v>
       </c>
       <c r="C2" t="n">
-        <v>7.11400510632015e-50</v>
+        <v>7.514744688444103e-53</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1304.869390742601</v>
+        <v>-1305.049488248824</v>
       </c>
       <c r="C3" t="n">
-        <v>8.115658108720802e-16</v>
+        <v>8.049170729950335e-16</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-751.7130652610058</v>
+        <v>-752.7250315821916</v>
       </c>
       <c r="C4" t="n">
-        <v>2.797819350343265e-13</v>
+        <v>2.59898179581715e-13</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-165.4112283653816</v>
+        <v>-162.0232296142746</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0940064266044178</v>
+        <v>0.1008389326487283</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-34.10139675052631</v>
+        <v>-36.65215056962711</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8556184310520913</v>
+        <v>0.8449458766601086</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.0326359670826</v>
+        <v>133.8245910708342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.216495575485131</v>
+        <v>0.1996796888156938</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.60510793040782</v>
+        <v>19.31742344508378</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4893484373718684</v>
+        <v>0.5167010503917548</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1051.77536500518</v>
+        <v>-1053.109175218684</v>
       </c>
       <c r="C9" t="n">
-        <v>1.299889158059036e-52</v>
+        <v>9.484618535154576e-53</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.17798384436819</v>
+        <v>-19.2274131972927</v>
       </c>
       <c r="C10" t="n">
-        <v>3.130403198809031e-10</v>
+        <v>2.813451140579557e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>157.5138004860142</v>
+        <v>157.2003508137668</v>
       </c>
       <c r="C11" t="n">
-        <v>5.105899565068428e-24</v>
+        <v>6.20906325488485e-24</v>
       </c>
     </row>
     <row r="12">
@@ -1946,7 +1881,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>339.2991728891359</v>
+        <v>336.6092313568724</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03478535102170287</v>
+        <v>0.03589897437000127</v>
       </c>
       <c r="C13" t="n">
-        <v>1.972564087078484e-11</v>
+        <v>2.473413796072597e-12</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.235024515768896e-07</v>
+        <v>-4.876314020796994e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9048645007356839</v>
+        <v>0.8568999188426989</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.885720588381222</v>
+        <v>-9.25060392746073</v>
       </c>
       <c r="C15" t="n">
-        <v>1.428332344600941e-06</v>
+        <v>3.99116237580598e-07</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.296692708302302</v>
+        <v>8.928461519546566</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006728830324991138</v>
+        <v>0.009048036470977081</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2291.664920645473</v>
+        <v>-2271.69864760473</v>
       </c>
       <c r="C17" t="n">
-        <v>5.031514665908777e-08</v>
+        <v>6.45409855452542e-08</v>
       </c>
     </row>
     <row r="18">
@@ -2024,23 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4057.6358854632</v>
+        <v>-4090.715157426441</v>
       </c>
       <c r="C18" t="n">
-        <v>1.581625674801018e-43</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1703.983958514149</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1598507630264897</v>
+        <v>1.750188031486784e-44</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7132.350864679921</v>
+        <v>7190.441798654245</v>
       </c>
       <c r="C2" t="n">
-        <v>3.547540524644973e-42</v>
+        <v>5.515755892428366e-44</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1281.714789963264</v>
+        <v>-1282.108818844818</v>
       </c>
       <c r="C3" t="n">
-        <v>2.188342411777651e-15</v>
+        <v>2.14390874231614e-15</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-792.0667026009012</v>
+        <v>-792.3338412184446</v>
       </c>
       <c r="C4" t="n">
-        <v>1.089375467652283e-14</v>
+        <v>1.066346086043438e-14</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-179.500008248864</v>
+        <v>-178.0034997316636</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06854409277447339</v>
+        <v>0.07080861422206369</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21.87937178143909</v>
+        <v>-22.31284368937258</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9062751093728976</v>
+        <v>0.9044257809616476</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>186.1999063440197</v>
+        <v>188.4227991655272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07482920208727814</v>
+        <v>0.07127940178331331</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.34728223655357</v>
+        <v>9.654548149851308</v>
       </c>
       <c r="C8" t="n">
-        <v>0.727755445200041</v>
+        <v>0.7451772361314626</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1028.125546670432</v>
+        <v>-1028.619070164509</v>
       </c>
       <c r="C9" t="n">
-        <v>1.436328299390342e-50</v>
+        <v>1.271312563537193e-50</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.94580390216823</v>
+        <v>-17.95678759050217</v>
       </c>
       <c r="C10" t="n">
-        <v>3.594658844965814e-09</v>
+        <v>3.514050629776924e-09</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.7687036993745</v>
+        <v>154.5954033333255</v>
       </c>
       <c r="C11" t="n">
-        <v>1.102563122513282e-23</v>
+        <v>1.216884115055821e-23</v>
       </c>
     </row>
     <row r="12">
@@ -2216,7 +2138,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>348.8530465733907</v>
+        <v>347.5765486633852</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03258522023293501</v>
+        <v>0.03311427535764676</v>
       </c>
       <c r="C13" t="n">
-        <v>2.911890351760696e-10</v>
+        <v>9.094559918718065e-11</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.730471266320964e-07</v>
+        <v>2.914372114222187e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8900058959358086</v>
+        <v>0.9138746721215163</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.440068892316592</v>
+        <v>-8.6125905161636</v>
       </c>
       <c r="C15" t="n">
-        <v>4.447136456189731e-06</v>
+        <v>2.251809875785129e-06</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.40116636090526</v>
+        <v>13.22964331070972</v>
       </c>
       <c r="C16" t="n">
-        <v>8.702540992138266e-05</v>
+        <v>0.000102391985204705</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1655.701232583486</v>
+        <v>-1645.689332336587</v>
       </c>
       <c r="C17" t="n">
-        <v>8.622703801514188e-05</v>
+        <v>9.417592799449018e-05</v>
       </c>
     </row>
     <row r="18">
@@ -2294,23 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3754.1484162746</v>
+        <v>-3769.680058163145</v>
       </c>
       <c r="C18" t="n">
-        <v>1.250621235418182e-37</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>813.021310739734</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5014423178031695</v>
+        <v>3.738511998367807e-38</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7362.537439070549</v>
+        <v>7493.218210347643</v>
       </c>
       <c r="C2" t="n">
-        <v>1.728489868123767e-44</v>
+        <v>2.843970052206923e-47</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1110.653898681402</v>
+        <v>-1111.894503115033</v>
       </c>
       <c r="C3" t="n">
-        <v>1.311994487046321e-11</v>
+        <v>1.24546086839701e-11</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-745.6998686157581</v>
+        <v>-746.870897269361</v>
       </c>
       <c r="C4" t="n">
-        <v>3.960028719026234e-13</v>
+        <v>3.637733218118819e-13</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-140.0136907856905</v>
+        <v>-136.7435741655191</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1565853111331599</v>
+        <v>0.1663949747411259</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24.32530999417588</v>
+        <v>-26.34150888943404</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8958860947094143</v>
+        <v>0.8873109482568988</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>232.2051833780391</v>
+        <v>237.0432637792193</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02608345339007719</v>
+        <v>0.02306358973830353</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-32.26567817400054</v>
+        <v>-33.44673390338534</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2775119220071246</v>
+        <v>0.2601424014874739</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1027.919702845023</v>
+        <v>-1029.103342978693</v>
       </c>
       <c r="C9" t="n">
-        <v>2.300706220575129e-50</v>
+        <v>1.759633144365446e-50</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.4614216897122</v>
+        <v>-19.48727166057185</v>
       </c>
       <c r="C10" t="n">
-        <v>1.65003138951332e-10</v>
+        <v>1.560944665911967e-10</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>149.3205111720011</v>
+        <v>148.9329220786264</v>
       </c>
       <c r="C11" t="n">
-        <v>2.92650707874803e-22</v>
+        <v>3.699550550045241e-22</v>
       </c>
     </row>
     <row r="12">
@@ -2486,7 +2395,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>352.0074747012404</v>
+        <v>349.1975230915085</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03344050821421948</v>
+        <v>0.03462681049972127</v>
       </c>
       <c r="C13" t="n">
-        <v>1.165875094304375e-10</v>
+        <v>1.46161556777563e-11</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.841196382599566e-06</v>
+        <v>-2.013790340003948e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4996613308557591</v>
+        <v>0.4599369538916647</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.677010727100239</v>
+        <v>-8.063493077889845</v>
       </c>
       <c r="C15" t="n">
-        <v>3.20960526475814e-05</v>
+        <v>1.029731574740415e-05</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.47446694580788</v>
+        <v>13.07781841562762</v>
       </c>
       <c r="C16" t="n">
-        <v>9.418325602934699e-05</v>
+        <v>0.0001438817234745437</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2194.3101212658</v>
+        <v>-2176.35699075802</v>
       </c>
       <c r="C17" t="n">
-        <v>2.117690673410074e-07</v>
+        <v>2.62917519366137e-07</v>
       </c>
     </row>
     <row r="18">
@@ -2564,23 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3949.688343633027</v>
+        <v>-3985.738789150704</v>
       </c>
       <c r="C18" t="n">
-        <v>2.90077978647913e-41</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1816.160493567918</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1354544974557464</v>
+        <v>2.929633343067851e-42</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7703.106708080709</v>
+        <v>7867.721927607242</v>
       </c>
       <c r="C2" t="n">
-        <v>4.858239287559643e-49</v>
+        <v>1.717314785992832e-52</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1318.862717440631</v>
+        <v>-1320.376669260267</v>
       </c>
       <c r="C3" t="n">
-        <v>7.342799642165104e-16</v>
+        <v>6.817134323258055e-16</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-837.1800125812701</v>
+        <v>-838.6698651618941</v>
       </c>
       <c r="C4" t="n">
-        <v>5.402294215883138e-16</v>
+        <v>4.799951807631505e-16</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-189.4341175826227</v>
+        <v>-184.8706141970313</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05635242527870028</v>
+        <v>0.06248697343940169</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.30193822513968</v>
+        <v>23.5626869480929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8905746710089171</v>
+        <v>0.8980561673643698</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.2595798210507</v>
+        <v>160.7033027122392</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1389649393622127</v>
+        <v>0.1230143383461691</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.024706000845534</v>
+        <v>1.278606757643807</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9188973526934993</v>
+        <v>0.9656519422860516</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1025.640543875908</v>
+        <v>-1027.141514213514</v>
       </c>
       <c r="C9" t="n">
-        <v>3.927839409432578e-50</v>
+        <v>2.816892934627207e-50</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.61907760707451</v>
+        <v>-19.65846825881029</v>
       </c>
       <c r="C10" t="n">
-        <v>1.147122872554093e-10</v>
+        <v>1.05372044957176e-10</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>147.332603638043</v>
+        <v>146.819409302506</v>
       </c>
       <c r="C11" t="n">
-        <v>6.304884703989882e-22</v>
+        <v>8.626363205905489e-22</v>
       </c>
     </row>
     <row r="12">
@@ -2756,7 +2652,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>350.2835046669212</v>
+        <v>346.70047086181</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03512320044635154</v>
+        <v>0.03665881538958525</v>
       </c>
       <c r="C13" t="n">
-        <v>1.212455075990703e-11</v>
+        <v>7.819585385752706e-13</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.936471970463138e-07</v>
+        <v>3.645751626765584e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8275674887847398</v>
+        <v>0.8934815256198398</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.350540157030064</v>
+        <v>-8.841157653666812</v>
       </c>
       <c r="C15" t="n">
-        <v>5.785603428599589e-06</v>
+        <v>1.239760152658799e-06</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.597021661659561</v>
+        <v>9.107381625187951</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004729491937343698</v>
+        <v>0.007174890208731713</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2533.045414672746</v>
+        <v>-2508.60173488227</v>
       </c>
       <c r="C17" t="n">
-        <v>1.961503329109673e-09</v>
+        <v>2.752758958618181e-09</v>
       </c>
     </row>
     <row r="18">
@@ -2834,23 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3919.841591241342</v>
+        <v>-3964.822463502334</v>
       </c>
       <c r="C18" t="n">
-        <v>7.092379548521905e-41</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2283.148014941621</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.06018944103152862</v>
+        <v>4.821922400653636e-42</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Madrid.xlsx
+++ b/outputs/ML_Results/dist_commute/Madrid.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ59065042" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ00717634" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ02617433" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ04767019" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ06911913" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ09673086" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ11663619" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ13767420" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ15850600" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ40817233" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ42470978" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ44108404" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ45670191" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ47340057" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ48939831" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ50515556" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ52139292" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ53714791" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8147.339643203286</v>
+        <v>8169.598924479304</v>
       </c>
       <c r="C2" t="n">
-        <v>4.429831831436137e-56</v>
+        <v>2.084008453043537e-56</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1294.792309204212</v>
+        <v>-1294.102948914823</v>
       </c>
       <c r="C3" t="n">
-        <v>1.788405664907987e-15</v>
+        <v>1.855924026498128e-15</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-694.5431832551232</v>
+        <v>-695.1476255975113</v>
       </c>
       <c r="C4" t="n">
-        <v>1.606546415152939e-11</v>
+        <v>1.551509871165642e-11</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-95.41605963124427</v>
+        <v>-97.75043192959691</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3358147442968349</v>
+        <v>0.3240964686172679</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123.4621956714186</v>
+        <v>-126.1137242358642</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5068997540680867</v>
+        <v>0.4978317434168301</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>147.0527987119874</v>
+        <v>147.5948637335252</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1608184966721143</v>
+        <v>0.1593001315398507</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.38455945921489</v>
+        <v>13.13929168917423</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6544012010478133</v>
+        <v>0.6603722721930974</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-943.5286704936444</v>
+        <v>-943.8359092534362</v>
       </c>
       <c r="C9" t="n">
-        <v>1.595862075658267e-42</v>
+        <v>1.51096916824721e-42</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.66524058070565</v>
+        <v>-18.67011497669119</v>
       </c>
       <c r="C10" t="n">
-        <v>9.702707940893742e-10</v>
+        <v>9.660952789881369e-10</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>171.6826597771854</v>
+        <v>170.654655588355</v>
       </c>
       <c r="C11" t="n">
-        <v>1.789552216534396e-28</v>
+        <v>3.551716816276951e-28</v>
       </c>
     </row>
     <row r="12">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>334.7259094130939</v>
+        <v>334.2489053325813</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02962095436620837</v>
+        <v>0.02864714047030228</v>
       </c>
       <c r="C13" t="n">
-        <v>7.926021347278447e-09</v>
+        <v>3.274373713625936e-08</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.491542664874018e-06</v>
+        <v>-1.56457567711721e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.585421634597082</v>
+        <v>0.5675770337389515</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.30467008145673</v>
+        <v>-10.30578338877088</v>
       </c>
       <c r="C15" t="n">
-        <v>1.606156075117273e-08</v>
+        <v>1.690806834232604e-08</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.073300104840953</v>
+        <v>4.96454180421496</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1344087238867675</v>
+        <v>0.1429064408288786</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2036.729564420369</v>
+        <v>-2025.518092877534</v>
       </c>
       <c r="C17" t="n">
-        <v>1.357389266706023e-06</v>
+        <v>1.548254212590596e-06</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3692.52207122635</v>
+        <v>-3660.908936388386</v>
       </c>
       <c r="C18" t="n">
-        <v>2.86154316542018e-36</v>
+        <v>1.734188375355874e-35</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8024.065984695533</v>
+        <v>8048.304403110658</v>
       </c>
       <c r="C2" t="n">
-        <v>7.868526938700544e-55</v>
+        <v>3.511730223118204e-55</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1449.412812664907</v>
+        <v>-1449.200652586061</v>
       </c>
       <c r="C3" t="n">
-        <v>6.20001377043387e-19</v>
+        <v>6.301895037375452e-19</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-784.7427227112296</v>
+        <v>-785.5402804771904</v>
       </c>
       <c r="C4" t="n">
-        <v>3.333038045427923e-14</v>
+        <v>3.16148026987186e-14</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-181.578717038299</v>
+        <v>-184.2554904550013</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06776587381233899</v>
+        <v>0.06379220115323758</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90.87786839415207</v>
+        <v>89.37511524262374</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6238480209542079</v>
+        <v>0.6296243919183069</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.5756824273831</v>
+        <v>185.1847361540805</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07905813030001753</v>
+        <v>0.07808609576462304</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.104364345922303</v>
+        <v>7.94863765727302</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7865689498823645</v>
+        <v>0.7906069685545259</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1054.516756026216</v>
+        <v>-1054.826167787378</v>
       </c>
       <c r="C9" t="n">
-        <v>1.962339727093595e-52</v>
+        <v>1.849420875662546e-52</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.6729207377672</v>
+        <v>-17.67912104041422</v>
       </c>
       <c r="C10" t="n">
-        <v>7.325712867360556e-09</v>
+        <v>7.272881723816333e-09</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.62374268613</v>
+        <v>162.6699913758129</v>
       </c>
       <c r="C11" t="n">
-        <v>8.323176715029065e-26</v>
+        <v>1.546509668373068e-25</v>
       </c>
     </row>
     <row r="12">
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>336.8921849136386</v>
+        <v>336.3446208167543</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03327511403833362</v>
+        <v>0.03235062596199907</v>
       </c>
       <c r="C13" t="n">
-        <v>9.479382583239562e-11</v>
+        <v>4.515333712988753e-10</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.690871577873939e-07</v>
+        <v>-2.593811140731755e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9502602796715525</v>
+        <v>0.9238442380641947</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.0622004218784</v>
+        <v>-10.07053274090987</v>
       </c>
       <c r="C15" t="n">
-        <v>3.46045154742004e-08</v>
+        <v>3.561439034078684e-08</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.61778306348436</v>
+        <v>6.500667374414963</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04921981575702555</v>
+        <v>0.05333701353668781</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1934.485961140168</v>
+        <v>-1923.039850366111</v>
       </c>
       <c r="C17" t="n">
-        <v>5.109076710221818e-06</v>
+        <v>5.799384798806002e-06</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3775.964966236744</v>
+        <v>-3746.547985063256</v>
       </c>
       <c r="C18" t="n">
-        <v>7.142582496674541e-38</v>
+        <v>4.216588586184926e-37</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8215.562924384107</v>
+        <v>8242.106764908001</v>
       </c>
       <c r="C2" t="n">
-        <v>1.554411776822951e-56</v>
+        <v>6.361627984518375e-57</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1183.434707944215</v>
+        <v>-1182.817884493964</v>
       </c>
       <c r="C3" t="n">
-        <v>3.30779668918556e-13</v>
+        <v>3.412558081324806e-13</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-630.6780278089909</v>
+        <v>-631.4216943190345</v>
       </c>
       <c r="C4" t="n">
-        <v>1.056618770829637e-09</v>
+        <v>1.014967183429339e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-19.2754452427013</v>
+        <v>-22.24773161584546</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8463378330037995</v>
+        <v>0.8229968987100897</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124.0508473691285</v>
+        <v>-126.3120520398692</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5078489023919741</v>
+        <v>0.5001789606879432</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>197.1870957878343</v>
+        <v>197.8042618637153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06019763038638299</v>
+        <v>0.0594148946856232</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.06798709211228</v>
+        <v>20.67598503941223</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4794605836169676</v>
+        <v>0.487734110373067</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-998.0376289536549</v>
+        <v>-998.2633333306718</v>
       </c>
       <c r="C9" t="n">
-        <v>3.157803860189322e-47</v>
+        <v>3.0413897731075e-47</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-21.61085234242476</v>
+        <v>-21.62479849155996</v>
       </c>
       <c r="C10" t="n">
-        <v>1.633813232519494e-12</v>
+        <v>1.593079105333394e-12</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.5104811724362</v>
+        <v>147.3291744854169</v>
       </c>
       <c r="C11" t="n">
-        <v>2.030450300834753e-21</v>
+        <v>4.100513379185867e-21</v>
       </c>
     </row>
     <row r="12">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>339.3063601682743</v>
+        <v>338.7697314383492</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03092666078950145</v>
+        <v>0.02964223846382566</v>
       </c>
       <c r="C13" t="n">
-        <v>1.895970084500803e-09</v>
+        <v>1.153335248039136e-08</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.004186742871004e-07</v>
+        <v>2.376099849169046e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9120889347921913</v>
+        <v>0.930485509185361</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.845145153347492</v>
+        <v>-9.828628446956051</v>
       </c>
       <c r="C15" t="n">
-        <v>8.180710373050831e-08</v>
+        <v>9.044251562230202e-08</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.777559949515691</v>
+        <v>5.633790531500281</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09072056329427078</v>
+        <v>0.09897532056954209</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2402.114100200882</v>
+        <v>-2389.16327122886</v>
       </c>
       <c r="C17" t="n">
-        <v>1.404064576674021e-08</v>
+        <v>1.673820307705835e-08</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3855.378605082624</v>
+        <v>-3813.725627618879</v>
       </c>
       <c r="C18" t="n">
-        <v>2.033933962581954e-39</v>
+        <v>1.98510033763942e-38</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7992.258836818523</v>
+        <v>8013.8013958475</v>
       </c>
       <c r="C2" t="n">
-        <v>1.615056331729581e-53</v>
+        <v>7.834903661389352e-54</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1337.55619129257</v>
+        <v>-1337.146612561327</v>
       </c>
       <c r="C3" t="n">
-        <v>2.067138405204317e-16</v>
+        <v>2.115814482132448e-16</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-728.0473094467933</v>
+        <v>-728.5655223487646</v>
       </c>
       <c r="C4" t="n">
-        <v>1.492338715604702e-12</v>
+        <v>1.445695385038231e-12</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-78.66732096438304</v>
+        <v>-80.4724834409087</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4263397581630883</v>
+        <v>0.4157855364102215</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252.0487644478199</v>
+        <v>-253.6141504462374</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1743690975148731</v>
+        <v>0.1717257639535098</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>230.9780669288645</v>
+        <v>231.5254995523362</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02711445923994765</v>
+        <v>0.02675859305017281</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.336562251394405</v>
+        <v>3.112320236257588</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9107067993658339</v>
+        <v>0.9166975937801032</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-982.6062838798487</v>
+        <v>-982.7795758898521</v>
       </c>
       <c r="C9" t="n">
-        <v>4.172468637830169e-46</v>
+        <v>4.048732619289021e-46</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.33735492398671</v>
+        <v>-17.34657487482995</v>
       </c>
       <c r="C10" t="n">
-        <v>1.173051019772845e-08</v>
+        <v>1.156780554738183e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>142.7639302510814</v>
+        <v>141.9112139256673</v>
       </c>
       <c r="C11" t="n">
-        <v>3.666314839895085e-20</v>
+        <v>5.923283279960476e-20</v>
       </c>
     </row>
     <row r="12">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>335.6076945440177</v>
+        <v>335.1516930120234</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02804089909586956</v>
+        <v>0.0272624459082305</v>
       </c>
       <c r="C13" t="n">
-        <v>5.30811455877078e-08</v>
+        <v>1.612555079621475e-07</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.049897045883297e-06</v>
+        <v>-1.124671893936286e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.697953539882981</v>
+        <v>0.6779226122987494</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.905504227451779</v>
+        <v>-9.92005747145287</v>
       </c>
       <c r="C15" t="n">
-        <v>6.352391887040005e-08</v>
+        <v>6.403204286463036e-08</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.497482509897125</v>
+        <v>6.390776858976743</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05668371605222151</v>
+        <v>0.06081815267208714</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1694.828684801587</v>
+        <v>-1684.418692133508</v>
       </c>
       <c r="C17" t="n">
-        <v>6.129480841341299e-05</v>
+        <v>6.791048858622582e-05</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3626.046442028185</v>
+        <v>-3600.622903136977</v>
       </c>
       <c r="C18" t="n">
-        <v>3.785778285749372e-35</v>
+        <v>1.688355786426182e-34</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7747.136604104569</v>
+        <v>7774.274361268459</v>
       </c>
       <c r="C2" t="n">
-        <v>1.06557634829171e-50</v>
+        <v>4.5651284391456e-51</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1138.519700804702</v>
+        <v>-1138.931010874109</v>
       </c>
       <c r="C3" t="n">
-        <v>2.471362158190186e-12</v>
+        <v>2.437749722892663e-12</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-776.554886741079</v>
+        <v>-777.4969005408466</v>
       </c>
       <c r="C4" t="n">
-        <v>6.121437452029237e-14</v>
+        <v>5.756638458178821e-14</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-137.9635864836916</v>
+        <v>-140.8178853334073</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1657760259740192</v>
+        <v>0.1571764734668465</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-165.1273985302089</v>
+        <v>-167.5707212750939</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3759781961698696</v>
+        <v>0.3689866066153011</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>275.3439025096751</v>
+        <v>276.1471036159448</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008681051812968478</v>
+        <v>0.008492024221065242</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.22539515121863</v>
+        <v>12.91861138823179</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6566480879297387</v>
+        <v>0.6641676140563475</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-935.4854053050453</v>
+        <v>-935.8212698271345</v>
       </c>
       <c r="C9" t="n">
-        <v>8.397328445453597e-42</v>
+        <v>7.937867259464186e-42</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.22565597207183</v>
+        <v>-18.24519992598238</v>
       </c>
       <c r="C10" t="n">
-        <v>2.418154076063631e-09</v>
+        <v>2.33679591983172e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.5083459653789</v>
+        <v>153.3135055731977</v>
       </c>
       <c r="C11" t="n">
-        <v>1.651487488986264e-23</v>
+        <v>3.482748975128235e-23</v>
       </c>
     </row>
     <row r="12">
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>344.8385343029726</v>
+        <v>344.2444962664178</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03674132878094442</v>
+        <v>0.03556252491017935</v>
       </c>
       <c r="C13" t="n">
-        <v>7.541128497964965e-13</v>
+        <v>6.085930586293503e-12</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.827606616551191e-07</v>
+        <v>4.911378489734182e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8307010963208965</v>
+        <v>0.8571535228213634</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.16870043609098</v>
+        <v>-10.16491828932458</v>
       </c>
       <c r="C15" t="n">
-        <v>2.77976717065774e-08</v>
+        <v>2.962314976030398e-08</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.52148529773606</v>
+        <v>8.387447695784189</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0121954093725276</v>
+        <v>0.0136124164790655</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2552.336064305032</v>
+        <v>-2537.230084433634</v>
       </c>
       <c r="C17" t="n">
-        <v>1.806195425919187e-09</v>
+        <v>2.242381665209016e-09</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3872.135819369422</v>
+        <v>-3833.956738018941</v>
       </c>
       <c r="C18" t="n">
-        <v>6.819119237847786e-40</v>
+        <v>6.044296866265519e-39</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7917.073538872442</v>
+        <v>7938.600787889187</v>
       </c>
       <c r="C2" t="n">
-        <v>7.514744688444103e-53</v>
+        <v>3.700904946285515e-53</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1305.049488248824</v>
+        <v>-1304.941628868817</v>
       </c>
       <c r="C3" t="n">
-        <v>8.049170729950335e-16</v>
+        <v>8.112093529749646e-16</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-752.7250315821916</v>
+        <v>-754.0212946031854</v>
       </c>
       <c r="C4" t="n">
-        <v>2.59898179581715e-13</v>
+        <v>2.377864841425433e-13</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-162.0232296142746</v>
+        <v>-163.9423887718063</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1008389326487283</v>
+        <v>0.0968463697816305</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-36.65215056962711</v>
+        <v>-37.76637704981357</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8449458766601086</v>
+        <v>0.8403011341283408</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.8245910708342</v>
+        <v>133.9176486019431</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1996796888156938</v>
+        <v>0.1993884319311115</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.31742344508378</v>
+        <v>19.30485616189468</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5167010503917548</v>
+        <v>0.5170271243457352</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1053.109175218684</v>
+        <v>-1053.486944517348</v>
       </c>
       <c r="C9" t="n">
-        <v>9.484618535154576e-53</v>
+        <v>8.768340802650197e-53</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.2274131972927</v>
+        <v>-19.21968870055015</v>
       </c>
       <c r="C10" t="n">
-        <v>2.813451140579557e-10</v>
+        <v>2.872583111937337e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>157.2003508137668</v>
+        <v>156.4560617002646</v>
       </c>
       <c r="C11" t="n">
-        <v>6.20906325488485e-24</v>
+        <v>9.676381105194162e-24</v>
       </c>
     </row>
     <row r="12">
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>336.6092313568724</v>
+        <v>336.0446263094401</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03589897437000127</v>
+        <v>0.03544722761644693</v>
       </c>
       <c r="C13" t="n">
-        <v>2.473413796072597e-12</v>
+        <v>7.126741255224897e-12</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.876314020796994e-07</v>
+        <v>-6.276853229602608e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8568999188426989</v>
+        <v>0.8166311666930062</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.25060392746073</v>
+        <v>-9.301995728558055</v>
       </c>
       <c r="C15" t="n">
-        <v>3.99116237580598e-07</v>
+        <v>3.594915875242344e-07</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.928461519546566</v>
+        <v>8.841808574510672</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009048036470977081</v>
+        <v>0.009731427469958576</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2271.69864760473</v>
+        <v>-2258.865628493896</v>
       </c>
       <c r="C17" t="n">
-        <v>6.45409855452542e-08</v>
+        <v>7.630390358035358e-08</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-4090.715157426441</v>
+        <v>-4074.843580865172</v>
       </c>
       <c r="C18" t="n">
-        <v>1.750188031486784e-44</v>
+        <v>6.033326022117672e-44</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7190.441798654245</v>
+        <v>7206.850767894784</v>
       </c>
       <c r="C2" t="n">
-        <v>5.515755892428366e-44</v>
+        <v>3.328757265921284e-44</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1282.108818844818</v>
+        <v>-1282.797457153798</v>
       </c>
       <c r="C3" t="n">
-        <v>2.14390874231614e-15</v>
+        <v>2.074871662306396e-15</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-792.3338412184446</v>
+        <v>-794.2202870059971</v>
       </c>
       <c r="C4" t="n">
-        <v>1.066346086043438e-14</v>
+        <v>9.280668332435119e-15</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-178.0034997316636</v>
+        <v>-179.688335546927</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07080861422206369</v>
+        <v>0.06814401252138599</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22.31284368937258</v>
+        <v>-23.16133946252728</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9044257809616476</v>
+        <v>0.9008085508355236</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.4227991655272</v>
+        <v>187.9857917546032</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07127940178331331</v>
+        <v>0.07194819924045544</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.654548149851308</v>
+        <v>9.82912958351006</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7451772361314626</v>
+        <v>0.7407603823058828</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1028.619070164509</v>
+        <v>-1028.697889738053</v>
       </c>
       <c r="C9" t="n">
-        <v>1.271312563537193e-50</v>
+        <v>1.251304799261105e-50</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.95678759050217</v>
+        <v>-17.93132150062315</v>
       </c>
       <c r="C10" t="n">
-        <v>3.514050629776924e-09</v>
+        <v>3.710245428619626e-09</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.5954033333255</v>
+        <v>154.2801216110956</v>
       </c>
       <c r="C11" t="n">
-        <v>1.216884115055821e-23</v>
+        <v>1.438138838142826e-23</v>
       </c>
     </row>
     <row r="12">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>347.5765486633852</v>
+        <v>347.105929316579</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03311427535764676</v>
+        <v>0.03320976974028698</v>
       </c>
       <c r="C13" t="n">
-        <v>9.094559918718065e-11</v>
+        <v>1.187206431650568e-10</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.914372114222187e-07</v>
+        <v>1.455828195559013e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9138746721215163</v>
+        <v>0.9569561642826865</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.6125905161636</v>
+        <v>-8.693509863607805</v>
       </c>
       <c r="C15" t="n">
-        <v>2.251809875785129e-06</v>
+        <v>1.877001381102932e-06</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.22964331070972</v>
+        <v>13.17855170330731</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000102391985204705</v>
+        <v>0.0001086636279446735</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1645.689332336587</v>
+        <v>-1636.78504890718</v>
       </c>
       <c r="C17" t="n">
-        <v>9.417592799449018e-05</v>
+        <v>0.0001026049775936923</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3769.680058163145</v>
+        <v>-3772.105210706301</v>
       </c>
       <c r="C18" t="n">
-        <v>3.738511998367807e-38</v>
+        <v>5.254900032582471e-38</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7493.218210347643</v>
+        <v>7513.4759756724</v>
       </c>
       <c r="C2" t="n">
-        <v>2.843970052206923e-47</v>
+        <v>1.521913052528761e-47</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1111.894503115033</v>
+        <v>-1112.564420036343</v>
       </c>
       <c r="C3" t="n">
-        <v>1.24546086839701e-11</v>
+        <v>1.213598271688557e-11</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-746.870897269361</v>
+        <v>-748.2944562280991</v>
       </c>
       <c r="C4" t="n">
-        <v>3.637733218118819e-13</v>
+        <v>3.302264137008698e-13</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-136.7435741655191</v>
+        <v>-138.9424206057795</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1663949747411259</v>
+        <v>0.1596450647026877</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26.34150888943404</v>
+        <v>-27.63538654144503</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8873109482568988</v>
+        <v>0.8818185775477737</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>237.0432637792193</v>
+        <v>237.2162064153159</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02306358973830353</v>
+        <v>0.02296969717544698</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-33.44673390338534</v>
+        <v>-33.50834303607333</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2601424014874739</v>
+        <v>0.2593226401719315</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1029.103342978693</v>
+        <v>-1029.272301997559</v>
       </c>
       <c r="C9" t="n">
-        <v>1.759633144365446e-50</v>
+        <v>1.705864086639526e-50</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.48727166057185</v>
+        <v>-19.47343541826625</v>
       </c>
       <c r="C10" t="n">
-        <v>1.560944665911967e-10</v>
+        <v>1.616324429902303e-10</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.9329220786264</v>
+        <v>148.2449506920064</v>
       </c>
       <c r="C11" t="n">
-        <v>3.699550550045241e-22</v>
+        <v>5.522092750503726e-22</v>
       </c>
     </row>
     <row r="12">
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>349.1975230915085</v>
+        <v>348.6794503222372</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03462681049972127</v>
+        <v>0.03416881413157322</v>
       </c>
       <c r="C13" t="n">
-        <v>1.46161556777563e-11</v>
+        <v>3.986294498289889e-11</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.013790340003948e-06</v>
+        <v>-2.138561914090712e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4599369538916647</v>
+        <v>0.4330796843079712</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.063493077889845</v>
+        <v>-8.105913790887289</v>
       </c>
       <c r="C15" t="n">
-        <v>1.029731574740415e-05</v>
+        <v>9.548400780023917e-06</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.07781841562762</v>
+        <v>12.99153351799597</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001438817234745437</v>
+        <v>0.0001588394045243759</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2176.35699075802</v>
+        <v>-2164.733767001831</v>
       </c>
       <c r="C17" t="n">
-        <v>2.62917519366137e-07</v>
+        <v>3.034931178533306e-07</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3985.738789150704</v>
+        <v>-3970.309850886377</v>
       </c>
       <c r="C18" t="n">
-        <v>2.929633343067851e-42</v>
+        <v>9.49768794116313e-42</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7867.721927607242</v>
+        <v>7890.57787115605</v>
       </c>
       <c r="C2" t="n">
-        <v>1.717314785992832e-52</v>
+        <v>8.137534965882123e-53</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1320.376669260267</v>
+        <v>-1319.99191992434</v>
       </c>
       <c r="C3" t="n">
-        <v>6.817134323258055e-16</v>
+        <v>6.965397151311931e-16</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-838.6698651618941</v>
+        <v>-839.8676584490155</v>
       </c>
       <c r="C4" t="n">
-        <v>4.799951807631505e-16</v>
+        <v>4.392006705757729e-16</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-184.8706141970313</v>
+        <v>-186.9523782817245</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06248697343940169</v>
+        <v>0.05957549074694189</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.5626869480929</v>
+        <v>22.61379893339182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8980561673643698</v>
+        <v>0.902145924962988</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.7033027122392</v>
+        <v>161.1466750892678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1230143383461691</v>
+        <v>0.1219972053863412</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.278606757643807</v>
+        <v>1.311460685834358</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9656519422860516</v>
+        <v>0.9647751439142187</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1027.141514213514</v>
+        <v>-1027.352711908931</v>
       </c>
       <c r="C9" t="n">
-        <v>2.816892934627207e-50</v>
+        <v>2.708345706043229e-50</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.65846825881029</v>
+        <v>-19.65182653237841</v>
       </c>
       <c r="C10" t="n">
-        <v>1.05372044957176e-10</v>
+        <v>1.073907841674609e-10</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>146.819409302506</v>
+        <v>146.0478643676072</v>
       </c>
       <c r="C11" t="n">
-        <v>8.626363205905489e-22</v>
+        <v>1.349359562802961e-21</v>
       </c>
     </row>
     <row r="12">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>346.70047086181</v>
+        <v>346.1456388376423</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03665881538958525</v>
+        <v>0.03617026213896864</v>
       </c>
       <c r="C13" t="n">
-        <v>7.819585385752706e-13</v>
+        <v>2.506840767255952e-12</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.645751626765584e-07</v>
+        <v>2.327257280120453e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8934815256198398</v>
+        <v>0.9319539657216235</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.841157653666812</v>
+        <v>-8.891956545163371</v>
       </c>
       <c r="C15" t="n">
-        <v>1.239760152658799e-06</v>
+        <v>1.123006014656311e-06</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.107381625187951</v>
+        <v>9.006791031174622</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007174890208731713</v>
+        <v>0.007829238510755093</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2508.60173488227</v>
+        <v>-2498.038814557821</v>
       </c>
       <c r="C17" t="n">
-        <v>2.752758958618181e-09</v>
+        <v>3.198946845148112e-09</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3964.822463502334</v>
+        <v>-3947.96231361426</v>
       </c>
       <c r="C18" t="n">
-        <v>4.821922400653636e-42</v>
+        <v>1.690985270844687e-41</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Madrid.xlsx
+++ b/outputs/ML_Results/dist_commute/Madrid.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ40817233" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ42470978" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ44108404" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ45670191" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ47340057" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ48939831" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ50515556" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ52139292" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ53714791" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ33654761" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ35223546" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ36868096" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ38487353" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ40090186" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ41755597" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ43397188" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ45318774" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ47099281" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Madrid.xlsx
+++ b/outputs/ML_Results/dist_commute/Madrid.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ33654761" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ35223546" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ36868096" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ38487353" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ40090186" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ41755597" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ43397188" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ45318774" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ47099281" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ48730340" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ49978173" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ51328792" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ52636750" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ53801977" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ54983834" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ56206690" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ57397073" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ58614206" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8169.598924479304</v>
+        <v>7115.144822374224</v>
       </c>
       <c r="C2" t="n">
-        <v>2.084008453043537e-56</v>
+        <v>3.191934247952756e-44</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1294.102948914823</v>
+        <v>-1236.822386871048</v>
       </c>
       <c r="C3" t="n">
-        <v>1.855924026498128e-15</v>
+        <v>3.294333662194842e-14</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-695.1476255975113</v>
+        <v>-669.114270721501</v>
       </c>
       <c r="C4" t="n">
-        <v>1.551509871165642e-11</v>
+        <v>9.267468654444341e-11</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-97.75043192959691</v>
+        <v>-197.0798586006669</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3240964686172679</v>
+        <v>0.04655156264651186</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126.1137242358642</v>
+        <v>-225.3128836690013</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4978317434168301</v>
+        <v>0.2263881534012163</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>147.5948637335252</v>
+        <v>184.084980126135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1593001315398507</v>
+        <v>0.07970400354545754</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.13929168917423</v>
+        <v>-2.485529465977521</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6603722721930974</v>
+        <v>0.9338353869236591</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-943.8359092534362</v>
+        <v>-948.0335758810231</v>
       </c>
       <c r="C9" t="n">
-        <v>1.51096916824721e-42</v>
+        <v>9.690580583035017e-43</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.67011497669119</v>
+        <v>-21.29754006327323</v>
       </c>
       <c r="C10" t="n">
-        <v>9.660952789881369e-10</v>
+        <v>3.013304506206321e-12</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.654655588355</v>
+        <v>154.5841934441774</v>
       </c>
       <c r="C11" t="n">
-        <v>3.551716816276951e-28</v>
+        <v>1.763437354114164e-23</v>
       </c>
     </row>
     <row r="12">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>334.2489053325813</v>
+        <v>331.5593172988051</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02864714047030228</v>
+        <v>-0.007523843919945102</v>
       </c>
       <c r="C13" t="n">
-        <v>3.274373713625936e-08</v>
+        <v>0.08019593011594843</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.56457567711721e-06</v>
+        <v>-2.876544339119269e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5675770337389515</v>
+        <v>0.2939295020826473</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.30578338877088</v>
+        <v>-11.30730310641571</v>
       </c>
       <c r="C15" t="n">
-        <v>1.690806834232604e-08</v>
+        <v>6.328649983836135e-10</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.96454180421496</v>
+        <v>7.393548875865235</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1429064408288786</v>
+        <v>0.02919093723387523</v>
       </c>
     </row>
     <row r="17">
@@ -661,23 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2025.518092877534</v>
+        <v>-196.6897872389</v>
       </c>
       <c r="C17" t="n">
-        <v>1.548254212590596e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3660.908936388386</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.734188375355874e-35</v>
+        <v>0.6192894997471762</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8048.304403110658</v>
+        <v>6915.916551243614</v>
       </c>
       <c r="C2" t="n">
-        <v>3.511730223118204e-55</v>
+        <v>2.777715378060139e-42</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1449.200652586061</v>
+        <v>-1386.736466427072</v>
       </c>
       <c r="C3" t="n">
-        <v>6.301895037375452e-19</v>
+        <v>2.080246632498749e-17</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-785.5402804771904</v>
+        <v>-760.0518375027218</v>
       </c>
       <c r="C4" t="n">
-        <v>3.16148026987186e-14</v>
+        <v>2.288871510743196e-13</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-184.2554904550013</v>
+        <v>-291.4411204050823</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06379220115323758</v>
+        <v>0.00332517640233399</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.37511524262374</v>
+        <v>-14.05025650150617</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6296243919183069</v>
+        <v>0.9396414581247827</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.1847361540805</v>
+        <v>216.8015537661655</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07808609576462304</v>
+        <v>0.03951653438348818</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.94863765727302</v>
+        <v>-7.644888747363817</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7906069685545259</v>
+        <v>0.7986986717374958</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1054.826167787378</v>
+        <v>-1057.723225628768</v>
       </c>
       <c r="C9" t="n">
-        <v>1.849420875662546e-52</v>
+        <v>1.622380403022577e-52</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.67912104041422</v>
+        <v>-20.48430006135739</v>
       </c>
       <c r="C10" t="n">
-        <v>7.272881723816333e-09</v>
+        <v>2.019419440668285e-11</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.6699913758129</v>
+        <v>147.0553110329238</v>
       </c>
       <c r="C11" t="n">
-        <v>1.546509668373068e-25</v>
+        <v>3.315112250512417e-21</v>
       </c>
     </row>
     <row r="12">
@@ -853,7 +840,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>336.3446208167543</v>
+        <v>333.7507774953296</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03235062596199907</v>
+        <v>-0.0046101450862244</v>
       </c>
       <c r="C13" t="n">
-        <v>4.515333712988753e-10</v>
+        <v>0.2847191630841557</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.593811140731755e-07</v>
+        <v>-1.51063933742206e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9238442380641947</v>
+        <v>0.5782930553238728</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.07053274090987</v>
+        <v>-10.9100309479509</v>
       </c>
       <c r="C15" t="n">
-        <v>3.561439034078684e-08</v>
+        <v>2.500941874651553e-09</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.500667374414963</v>
+        <v>9.383402560316245</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05333701353668781</v>
+        <v>0.005284445389939524</v>
       </c>
     </row>
     <row r="17">
@@ -918,23 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1923.039850366111</v>
+        <v>-2.544620249143918</v>
       </c>
       <c r="C17" t="n">
-        <v>5.799384798806002e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3746.547985063256</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4.216588586184926e-37</v>
+        <v>0.9948896731184067</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8242.106764908001</v>
+        <v>7132.137136947102</v>
       </c>
       <c r="C2" t="n">
-        <v>6.361627984518375e-57</v>
+        <v>4.506241359364619e-44</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1182.817884493964</v>
+        <v>-1115.950795751622</v>
       </c>
       <c r="C3" t="n">
-        <v>3.412558081324806e-13</v>
+        <v>7.190610013847862e-12</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-631.4216943190345</v>
+        <v>-594.5752539613088</v>
       </c>
       <c r="C4" t="n">
-        <v>1.014967183429339e-09</v>
+        <v>9.469201646632125e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-22.24773161584546</v>
+        <v>-126.9681358236207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8229968987100897</v>
+        <v>0.2012771094150341</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126.3120520398692</v>
+        <v>-230.9533049629716</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5001789606879432</v>
+        <v>0.2182911461353307</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>197.8042618637153</v>
+        <v>230.723389637135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0594148946856232</v>
+        <v>0.028201094464383</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.67598503941223</v>
+        <v>4.07939190429579</v>
       </c>
       <c r="C8" t="n">
-        <v>0.487734110373067</v>
+        <v>0.8912467223390659</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-998.2633333306718</v>
+        <v>-1001.497491017695</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0413897731075e-47</v>
+        <v>2.481555171683773e-47</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-21.62479849155996</v>
+        <v>-24.20830706491198</v>
       </c>
       <c r="C10" t="n">
-        <v>1.593079105333394e-12</v>
+        <v>2.605278726196767e-15</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>147.3291744854169</v>
+        <v>129.9451940640386</v>
       </c>
       <c r="C11" t="n">
-        <v>4.100513379185867e-21</v>
+        <v>8.064101021367983e-17</v>
       </c>
     </row>
     <row r="12">
@@ -1110,7 +1084,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>338.7697314383492</v>
+        <v>335.6532190115446</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02964223846382566</v>
+        <v>-0.00806296045709028</v>
       </c>
       <c r="C13" t="n">
-        <v>1.153335248039136e-08</v>
+        <v>0.06164800105932813</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.376099849169046e-07</v>
+        <v>-1.081955174797173e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.930485509185361</v>
+        <v>0.6916657225366302</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.828628446956051</v>
+        <v>-10.89704114107542</v>
       </c>
       <c r="C15" t="n">
-        <v>9.044251562230202e-08</v>
+        <v>3.254433640539094e-09</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.633790531500281</v>
+        <v>8.219341372839576</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09897532056954209</v>
+        <v>0.01614551740216637</v>
       </c>
     </row>
     <row r="17">
@@ -1175,23 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2389.16327122886</v>
+        <v>-453.4413045408883</v>
       </c>
       <c r="C17" t="n">
-        <v>1.673820307705835e-08</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3813.725627618879</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.98510033763942e-38</v>
+        <v>0.253465874688689</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8013.8013958475</v>
+        <v>6996.543887543383</v>
       </c>
       <c r="C2" t="n">
-        <v>7.834903661389352e-54</v>
+        <v>2.304984045378099e-42</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1337.146612561327</v>
+        <v>-1275.639225914847</v>
       </c>
       <c r="C3" t="n">
-        <v>2.115814482132448e-16</v>
+        <v>5.050741523547098e-15</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-728.5655223487646</v>
+        <v>-702.3984647819159</v>
       </c>
       <c r="C4" t="n">
-        <v>1.445695385038231e-12</v>
+        <v>9.547081261558851e-12</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-80.4724834409087</v>
+        <v>-182.614748311517</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4157855364102215</v>
+        <v>0.06439374199593219</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-253.6141504462374</v>
+        <v>-342.7537824776824</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1717257639535098</v>
+        <v>0.06508128851354847</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>231.5254995523362</v>
+        <v>269.5822540552866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02675859305017281</v>
+        <v>0.01002387678190709</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.112320236257588</v>
+        <v>-15.6487505216143</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9166975937801032</v>
+        <v>0.5992132340942009</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-982.7795758898521</v>
+        <v>-985.5695640610431</v>
       </c>
       <c r="C9" t="n">
-        <v>4.048732619289021e-46</v>
+        <v>3.427785989539336e-46</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.34657487482995</v>
+        <v>-19.90915731947624</v>
       </c>
       <c r="C10" t="n">
-        <v>1.156780554738183e-08</v>
+        <v>5.726189509881491e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.9112139256673</v>
+        <v>125.4571711587769</v>
       </c>
       <c r="C11" t="n">
-        <v>5.923283279960476e-20</v>
+        <v>5.480788002192418e-16</v>
       </c>
     </row>
     <row r="12">
@@ -1367,7 +1328,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>335.1516930120234</v>
+        <v>332.5925541540774</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0272624459082305</v>
+        <v>-0.008624269141729327</v>
       </c>
       <c r="C13" t="n">
-        <v>1.612555079621475e-07</v>
+        <v>0.04540125744896348</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.124671893936286e-06</v>
+        <v>-2.240304339327645e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6779226122987494</v>
+        <v>0.408774435616682</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.92005747145287</v>
+        <v>-10.95508797175635</v>
       </c>
       <c r="C15" t="n">
-        <v>6.403204286463036e-08</v>
+        <v>2.441573113634585e-09</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.390776858976743</v>
+        <v>8.755840896025141</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06081815267208714</v>
+        <v>0.0102433653963917</v>
       </c>
     </row>
     <row r="17">
@@ -1432,23 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1684.418692133508</v>
+        <v>131.548715888237</v>
       </c>
       <c r="C17" t="n">
-        <v>6.791048858622582e-05</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3600.622903136977</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.688355786426182e-34</v>
+        <v>0.740262353678259</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7774.274361268459</v>
+        <v>6651.852770589054</v>
       </c>
       <c r="C2" t="n">
-        <v>4.5651284391456e-51</v>
+        <v>9.668181145547725e-39</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1138.931010874109</v>
+        <v>-1065.935473523528</v>
       </c>
       <c r="C3" t="n">
-        <v>2.437749722892663e-12</v>
+        <v>5.876891279445658e-11</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-777.4969005408466</v>
+        <v>-744.7102057826407</v>
       </c>
       <c r="C4" t="n">
-        <v>5.756638458178821e-14</v>
+        <v>6.845916300177768e-13</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-140.8178853334073</v>
+        <v>-248.2931945790563</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1571764734668465</v>
+        <v>0.01252332868163259</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167.5707212750939</v>
+        <v>-267.8826132601213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3689866066153011</v>
+        <v>0.1515538711783371</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>276.1471036159448</v>
+        <v>312.5845799638705</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008492024221065242</v>
+        <v>0.002946223181693791</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.91861138823179</v>
+        <v>-5.275942962059672</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6641676140563475</v>
+        <v>0.8594300299906702</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-935.8212698271345</v>
+        <v>-943.9543734838973</v>
       </c>
       <c r="C9" t="n">
-        <v>7.937867259464186e-42</v>
+        <v>2.427400615440499e-42</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.24519992598238</v>
+        <v>-20.74633451804354</v>
       </c>
       <c r="C10" t="n">
-        <v>2.33679591983172e-09</v>
+        <v>1.133285462893363e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>153.3135055731977</v>
+        <v>135.6839603774609</v>
       </c>
       <c r="C11" t="n">
-        <v>3.482748975128235e-23</v>
+        <v>1.468645294969448e-18</v>
       </c>
     </row>
     <row r="12">
@@ -1624,7 +1572,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>344.2444962664178</v>
+        <v>341.9608626987927</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03556252491017935</v>
+        <v>-0.002406304068621672</v>
       </c>
       <c r="C13" t="n">
-        <v>6.085930586293503e-12</v>
+        <v>0.5744343976005895</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.911378489734182e-07</v>
+        <v>-7.593944910771278e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8571535228213634</v>
+        <v>0.7811317103670059</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.16491828932458</v>
+        <v>-11.13931236817058</v>
       </c>
       <c r="C15" t="n">
-        <v>2.962314976030398e-08</v>
+        <v>1.312423228569347e-09</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.387447695784189</v>
+        <v>10.90417377757619</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0136124164790655</v>
+        <v>0.001348918623261685</v>
       </c>
     </row>
     <row r="17">
@@ -1689,23 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2537.230084433634</v>
+        <v>-582.7801448089476</v>
       </c>
       <c r="C17" t="n">
-        <v>2.242381665209016e-09</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3833.956738018941</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.044296866265519e-39</v>
+        <v>0.1430461721675476</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7938.600787889187</v>
+        <v>6781.090739339683</v>
       </c>
       <c r="C2" t="n">
-        <v>3.700904946285515e-53</v>
+        <v>4.30984187497008e-40</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1304.941628868817</v>
+        <v>-1242.071224930298</v>
       </c>
       <c r="C3" t="n">
-        <v>8.112093529749646e-16</v>
+        <v>2.043570658619666e-14</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-754.0212946031854</v>
+        <v>-723.4257168987936</v>
       </c>
       <c r="C4" t="n">
-        <v>2.377864841425433e-13</v>
+        <v>2.351629297467007e-12</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-163.9423887718063</v>
+        <v>-273.9782181322968</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0968463697816305</v>
+        <v>0.005497881514440971</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.76637704981357</v>
+        <v>-143.2346645230407</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8403011341283408</v>
+        <v>0.4455358788106493</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.9176486019431</v>
+        <v>176.4861898498179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1993884319311115</v>
+        <v>0.09150351313060308</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.30485616189468</v>
+        <v>1.515092058430239</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5170271243457352</v>
+        <v>0.9595121767485759</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1053.486944517348</v>
+        <v>-1061.189012237978</v>
       </c>
       <c r="C9" t="n">
-        <v>8.768340802650197e-53</v>
+        <v>2.899434728430444e-53</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.21968870055015</v>
+        <v>-22.04143267206438</v>
       </c>
       <c r="C10" t="n">
-        <v>2.872583111937337e-10</v>
+        <v>4.909267492043533e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.4560617002646</v>
+        <v>135.8764326464449</v>
       </c>
       <c r="C11" t="n">
-        <v>9.676381105194162e-24</v>
+        <v>2.293653702514525e-18</v>
       </c>
     </row>
     <row r="12">
@@ -1881,7 +1816,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>336.0446263094401</v>
+        <v>333.1428193102266</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03544722761644693</v>
+        <v>-0.005161795606442469</v>
       </c>
       <c r="C13" t="n">
-        <v>7.126741255224897e-12</v>
+        <v>0.2276831543645201</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.276853229602608e-07</v>
+        <v>-2.081096159645704e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8166311666930062</v>
+        <v>0.4428652137619716</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.301995728558055</v>
+        <v>-10.39081337589394</v>
       </c>
       <c r="C15" t="n">
-        <v>3.594915875242344e-07</v>
+        <v>1.386197455487134e-08</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.841808574510672</v>
+        <v>11.45043604455092</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009731427469958576</v>
+        <v>0.0008253536817267825</v>
       </c>
     </row>
     <row r="17">
@@ -1946,23 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2258.865628493896</v>
+        <v>-226.6295216412591</v>
       </c>
       <c r="C17" t="n">
-        <v>7.630390358035358e-08</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-4074.843580865172</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.033326022117672e-44</v>
+        <v>0.5661155042409891</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7206.850767894784</v>
+        <v>6094.920087567732</v>
       </c>
       <c r="C2" t="n">
-        <v>3.328757265921284e-44</v>
+        <v>7.352149910223447e-33</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1282.797457153798</v>
+        <v>-1221.521548393238</v>
       </c>
       <c r="C3" t="n">
-        <v>2.074871662306396e-15</v>
+        <v>4.546658422909374e-14</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-794.2202870059971</v>
+        <v>-768.7875222075807</v>
       </c>
       <c r="C4" t="n">
-        <v>9.280668332435119e-15</v>
+        <v>7.132633531207707e-14</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-179.688335546927</v>
+        <v>-286.41243110903</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06814401252138599</v>
+        <v>0.003601573862083814</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23.16133946252728</v>
+        <v>-111.6673633365225</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9008085508355236</v>
+        <v>0.5485150495538924</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>187.9857917546032</v>
+        <v>228.5273507647595</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07194819924045544</v>
+        <v>0.02899262044729045</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.82912958351006</v>
+        <v>-8.015326860929239</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7407603823058828</v>
+        <v>0.7875584216597018</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1028.697889738053</v>
+        <v>-1034.255044907981</v>
       </c>
       <c r="C9" t="n">
-        <v>1.251304799261105e-50</v>
+        <v>6.138729672282997e-51</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.93132150062315</v>
+        <v>-20.53208536357568</v>
       </c>
       <c r="C10" t="n">
-        <v>3.710245428619626e-09</v>
+        <v>1.467188485553945e-11</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.2801216110956</v>
+        <v>137.7807884260446</v>
       </c>
       <c r="C11" t="n">
-        <v>1.438138838142826e-23</v>
+        <v>3.627729880328225e-19</v>
       </c>
     </row>
     <row r="12">
@@ -2138,7 +2060,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>347.105929316579</v>
+        <v>344.7248838115232</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03320976974028698</v>
+        <v>-0.004130273576992551</v>
       </c>
       <c r="C13" t="n">
-        <v>1.187206431650568e-10</v>
+        <v>0.333982064937924</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.455828195559013e-07</v>
+        <v>-1.010177908438262e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9569561642826865</v>
+        <v>0.7084916923821072</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.693509863607805</v>
+        <v>-9.645426916336817</v>
       </c>
       <c r="C15" t="n">
-        <v>1.877001381102932e-06</v>
+        <v>1.288857263689615e-07</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.17855170330731</v>
+        <v>15.83742187836213</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001086636279446735</v>
+        <v>3.332821897480545e-06</v>
       </c>
     </row>
     <row r="17">
@@ -2203,23 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1636.78504890718</v>
+        <v>271.7793675766798</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001026049775936923</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3772.105210706301</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5.254900032582471e-38</v>
+        <v>0.4918644959629651</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7513.4759756724</v>
+        <v>6381.578871680379</v>
       </c>
       <c r="C2" t="n">
-        <v>1.521913052528761e-47</v>
+        <v>1.600834450600866e-35</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1112.564420036343</v>
+        <v>-1044.718500431828</v>
       </c>
       <c r="C3" t="n">
-        <v>1.213598271688557e-11</v>
+        <v>2.115903559519045e-10</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-748.2944562280991</v>
+        <v>-722.1958781475671</v>
       </c>
       <c r="C4" t="n">
-        <v>3.302264137008698e-13</v>
+        <v>2.356903072960209e-12</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-138.9424206057795</v>
+        <v>-253.3411451107264</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1596450647026877</v>
+        <v>0.01025563359721282</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27.63538654144503</v>
+        <v>-123.1181079810877</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8818185775477737</v>
+        <v>0.5085168484999746</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>237.2162064153159</v>
+        <v>282.9259375615384</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02296969717544698</v>
+        <v>0.00679388493068932</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-33.50834303607333</v>
+        <v>-51.60112558021333</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2593226401719315</v>
+        <v>0.08283093706840562</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1029.272301997559</v>
+        <v>-1030.489095736427</v>
       </c>
       <c r="C9" t="n">
-        <v>1.705864086639526e-50</v>
+        <v>2.276401602793458e-50</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.47343541826625</v>
+        <v>-22.41050198570411</v>
       </c>
       <c r="C10" t="n">
-        <v>1.616324429902303e-10</v>
+        <v>1.864732342153314e-13</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.2449506920064</v>
+        <v>131.7207596228465</v>
       </c>
       <c r="C11" t="n">
-        <v>5.522092750503726e-22</v>
+        <v>1.028430878319005e-17</v>
       </c>
     </row>
     <row r="12">
@@ -2395,7 +2304,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>348.6794503222372</v>
+        <v>345.9038189954766</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03416881413157322</v>
+        <v>-0.005079679886835293</v>
       </c>
       <c r="C13" t="n">
-        <v>3.986294498289889e-11</v>
+        <v>0.2370304435513136</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.138561914090712e-06</v>
+        <v>-3.261654953865476e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4330796843079712</v>
+        <v>0.2327854872903011</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.105913790887289</v>
+        <v>-9.156677284805724</v>
       </c>
       <c r="C15" t="n">
-        <v>9.548400780023917e-06</v>
+        <v>5.945336653816916e-07</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.99153351799597</v>
+        <v>15.39287438784989</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001588394045243759</v>
+        <v>7.83537315837833e-06</v>
       </c>
     </row>
     <row r="17">
@@ -2460,23 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2164.733767001831</v>
+        <v>-133.2878974139085</v>
       </c>
       <c r="C17" t="n">
-        <v>3.034931178533306e-07</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3970.309850886377</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9.49768794116313e-42</v>
+        <v>0.7365113726799819</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7890.57787115605</v>
+        <v>6733.867793029806</v>
       </c>
       <c r="C2" t="n">
-        <v>8.137534965882123e-53</v>
+        <v>7.616800619684081e-40</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1319.99191992434</v>
+        <v>-1253.264365359743</v>
       </c>
       <c r="C3" t="n">
-        <v>6.965397151311931e-16</v>
+        <v>2.039143086694598e-14</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-839.8676584490155</v>
+        <v>-805.8999302143807</v>
       </c>
       <c r="C4" t="n">
-        <v>4.392006705757729e-16</v>
+        <v>7.139841022901046e-15</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-186.9523782817245</v>
+        <v>-300.1751401317877</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05957549074694189</v>
+        <v>0.002460608821855693</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.61379893339182</v>
+        <v>-87.9091159027214</v>
       </c>
       <c r="C6" t="n">
-        <v>0.902145924962988</v>
+        <v>0.6331778684880309</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.1466750892678</v>
+        <v>203.4099595295772</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1219972053863412</v>
+        <v>0.05140413598513412</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.311460685834358</v>
+        <v>-15.84469978286127</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9647751439142187</v>
+        <v>0.5942199110016637</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1027.352711908931</v>
+        <v>-1033.919251397151</v>
       </c>
       <c r="C9" t="n">
-        <v>2.708345706043229e-50</v>
+        <v>1.122882583377749e-50</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.65182653237841</v>
+        <v>-22.36572754244016</v>
       </c>
       <c r="C10" t="n">
-        <v>1.073907841674609e-10</v>
+        <v>2.055746929206542e-13</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>146.0478643676072</v>
+        <v>130.6138903981522</v>
       </c>
       <c r="C11" t="n">
-        <v>1.349359562802961e-21</v>
+        <v>1.329878085186903e-17</v>
       </c>
     </row>
     <row r="12">
@@ -2652,7 +2548,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>346.1456388376423</v>
+        <v>343.5924935346344</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03617026213896864</v>
+        <v>-0.002836844453582097</v>
       </c>
       <c r="C13" t="n">
-        <v>2.506840767255952e-12</v>
+        <v>0.5085648610343585</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.327257280120453e-07</v>
+        <v>-9.87154043881884e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9319539657216235</v>
+        <v>0.7177302102076614</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.891956545163371</v>
+        <v>-9.911571204329393</v>
       </c>
       <c r="C15" t="n">
-        <v>1.123006014656311e-06</v>
+        <v>6.022179513629899e-08</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.006791031174622</v>
+        <v>11.62034131722424</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007829238510755093</v>
+        <v>0.0006078519285136973</v>
       </c>
     </row>
     <row r="17">
@@ -2717,23 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2498.038814557821</v>
+        <v>-503.4983393010962</v>
       </c>
       <c r="C17" t="n">
-        <v>3.198946845148112e-09</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3947.96231361426</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.690985270844687e-41</v>
+        <v>0.2036681026559839</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Madrid.xlsx
+++ b/outputs/ML_Results/dist_commute/Madrid.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ48730340" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ49978173" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ51328792" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ52636750" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ53801977" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ54983834" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ56206690" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ57397073" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ58614206" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ52273593" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ53634647" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ55057154" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ56855786" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ58320549" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ59851572" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ01543395" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ03027823" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ04374759" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7115.144822374224</v>
+        <v>7163.754050064753</v>
       </c>
       <c r="C2" t="n">
-        <v>3.191934247952756e-44</v>
+        <v>2.353722694364156e-45</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1236.822386871048</v>
+        <v>-1334.877231661049</v>
       </c>
       <c r="C3" t="n">
-        <v>3.294333662194842e-14</v>
+        <v>2.057092933156538e-16</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-669.114270721501</v>
+        <v>-701.6562901995057</v>
       </c>
       <c r="C4" t="n">
-        <v>9.267468654444341e-11</v>
+        <v>9.016508850052614e-12</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-197.0798586006669</v>
+        <v>-293.3503795076266</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04655156264651186</v>
+        <v>0.002956313060392761</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225.3128836690013</v>
+        <v>-119.6234332402843</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2263881534012163</v>
+        <v>0.5158979696131183</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.084980126135</v>
+        <v>225.4301343404246</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07970400354545754</v>
+        <v>0.03108003383266865</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.485529465977521</v>
+        <v>-31.11757924536631</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9338353869236591</v>
+        <v>0.2938755089367804</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-948.0335758810231</v>
+        <v>-969.8432900629413</v>
       </c>
       <c r="C9" t="n">
-        <v>9.690580583035017e-43</v>
+        <v>3.862319293220536e-45</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-21.29754006327323</v>
+        <v>-22.00921369913203</v>
       </c>
       <c r="C10" t="n">
-        <v>3.013304506206321e-12</v>
+        <v>3.424665081930156e-13</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.5841934441774</v>
+        <v>146.5007448331413</v>
       </c>
       <c r="C11" t="n">
-        <v>1.763437354114164e-23</v>
+        <v>1.269579219508063e-21</v>
       </c>
     </row>
     <row r="12">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>331.5593172988051</v>
+        <v>336.3972689809638</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.007523843919945102</v>
+        <v>-1.084335906412869</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08019593011594843</v>
+        <v>0.01106122334258675</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.876544339119269e-06</v>
+        <v>-1.297381223928731</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2939295020826473</v>
+        <v>0.5456101172304346</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-11.30730310641571</v>
+        <v>-10.55551025182053</v>
       </c>
       <c r="C15" t="n">
-        <v>6.328649983836135e-10</v>
+        <v>6.850182806594566e-09</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.393548875865235</v>
+        <v>7.830950475309166</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02919093723387523</v>
+        <v>0.02096983596097391</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-196.6897872389</v>
+        <v>-0.6488140648031262</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6192894997471762</v>
+        <v>0.869006719877827</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6915.916551243614</v>
+        <v>6801.779958424397</v>
       </c>
       <c r="C2" t="n">
-        <v>2.777715378060139e-42</v>
+        <v>6.932873866048739e-41</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1386.736466427072</v>
+        <v>-1260.221139935298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.080246632498749e-17</v>
+        <v>1.281805505690969e-14</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-760.0518375027218</v>
+        <v>-720.134165986523</v>
       </c>
       <c r="C4" t="n">
-        <v>2.288871510743196e-13</v>
+        <v>2.786933340191687e-12</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-291.4411204050823</v>
+        <v>-207.9166066771814</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00332517640233399</v>
+        <v>0.03505538427732802</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14.05025650150617</v>
+        <v>-98.25153356789514</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9396414581247827</v>
+        <v>0.600880021595144</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.8015537661655</v>
+        <v>261.7423857530986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03951653438348818</v>
+        <v>0.01216288535881955</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.644888747363817</v>
+        <v>-7.575434892612371</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7986986717374958</v>
+        <v>0.7995308129392475</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1057.723225628768</v>
+        <v>-967.1269673101201</v>
       </c>
       <c r="C9" t="n">
-        <v>1.622380403022577e-52</v>
+        <v>2.028022233560352e-44</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.48430006135739</v>
+        <v>-22.390193249189</v>
       </c>
       <c r="C10" t="n">
-        <v>2.019419440668285e-11</v>
+        <v>2.2824132513853e-13</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>147.0553110329238</v>
+        <v>132.2905213362981</v>
       </c>
       <c r="C11" t="n">
-        <v>3.315112250512417e-21</v>
+        <v>1.358217217420605e-17</v>
       </c>
     </row>
     <row r="12">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>333.7507774953296</v>
+        <v>337.444340069701</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0046101450862244</v>
+        <v>-0.6972861775208858</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2847191630841557</v>
+        <v>0.1051418880220061</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.51063933742206e-06</v>
+        <v>-0.2053362042673683</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5782930553238728</v>
+        <v>0.9238297824858948</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.9100309479509</v>
+        <v>-10.21168895348278</v>
       </c>
       <c r="C15" t="n">
-        <v>2.500941874651553e-09</v>
+        <v>2.150128882338595e-08</v>
       </c>
     </row>
     <row r="16">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.383402560316245</v>
+        <v>10.39971025109456</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005284445389939524</v>
+        <v>0.002099555571532448</v>
       </c>
     </row>
     <row r="17">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.544620249143918</v>
+        <v>-2.033932432468823</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9948896731184067</v>
+        <v>0.6084528385708072</v>
       </c>
     </row>
   </sheetData>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7132.137136947102</v>
+        <v>6472.108976936228</v>
       </c>
       <c r="C2" t="n">
-        <v>4.506241359364619e-44</v>
+        <v>3.875840917456159e-37</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1115.950795751622</v>
+        <v>-1151.293307967079</v>
       </c>
       <c r="C3" t="n">
-        <v>7.190610013847862e-12</v>
+        <v>1.270698721885022e-12</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-594.5752539613088</v>
+        <v>-769.1795945913615</v>
       </c>
       <c r="C4" t="n">
-        <v>9.469201646632125e-09</v>
+        <v>7.050739408309165e-14</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-126.9681358236207</v>
+        <v>-282.3735471640884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2012771094150341</v>
+        <v>0.004115929204555667</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-230.9533049629716</v>
+        <v>-105.2863596407861</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2182911461353307</v>
+        <v>0.575200436496649</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>230.723389637135</v>
+        <v>142.9184382143512</v>
       </c>
       <c r="C7" t="n">
-        <v>0.028201094464383</v>
+        <v>0.1700110463334541</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.07939190429579</v>
+        <v>0.5115421320159488</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8912467223390659</v>
+        <v>0.9862251045233928</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1001.497491017695</v>
+        <v>-1022.397574482422</v>
       </c>
       <c r="C9" t="n">
-        <v>2.481555171683773e-47</v>
+        <v>6.468541987621462e-50</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-24.20830706491198</v>
+        <v>-19.36865840380694</v>
       </c>
       <c r="C10" t="n">
-        <v>2.605278726196767e-15</v>
+        <v>2.175202524671728e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>129.9451940640386</v>
+        <v>148.4367425110676</v>
       </c>
       <c r="C11" t="n">
-        <v>8.064101021367983e-17</v>
+        <v>5.459643234518802e-22</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>335.6532190115446</v>
+        <v>338.2928273172793</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.00806296045709028</v>
+        <v>-0.5134167602063084</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06164800105932813</v>
+        <v>0.2302517847085761</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.081955174797173e-06</v>
+        <v>-1.267190597549292</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6916657225366302</v>
+        <v>0.5515688424245503</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.89704114107542</v>
+        <v>-9.801804611219655</v>
       </c>
       <c r="C15" t="n">
-        <v>3.254433640539094e-09</v>
+        <v>7.317365708713267e-08</v>
       </c>
     </row>
     <row r="16">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.219341372839576</v>
+        <v>12.14185893084772</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01614551740216637</v>
+        <v>0.0003575881599457824</v>
       </c>
     </row>
     <row r="17">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-453.4413045408883</v>
+        <v>-2.207655084522926</v>
       </c>
       <c r="C17" t="n">
-        <v>0.253465874688689</v>
+        <v>0.5761312049418518</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6996.543887543383</v>
+        <v>6454.343694507228</v>
       </c>
       <c r="C2" t="n">
-        <v>2.304984045378099e-42</v>
+        <v>3.817393658235617e-37</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1275.639225914847</v>
+        <v>-1241.980836435362</v>
       </c>
       <c r="C3" t="n">
-        <v>5.050741523547098e-15</v>
+        <v>2.62145389748161e-14</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-702.3984647819159</v>
+        <v>-813.4026398809813</v>
       </c>
       <c r="C4" t="n">
-        <v>9.547081261558851e-12</v>
+        <v>3.152924774731026e-15</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-182.614748311517</v>
+        <v>-283.460484391612</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06439374199593219</v>
+        <v>0.004138824157732446</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-342.7537824776824</v>
+        <v>-202.3276198799892</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06508128851354847</v>
+        <v>0.27202625077718</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>269.5822540552866</v>
+        <v>259.1237122756808</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01002387678190709</v>
+        <v>0.01301988628136133</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-15.6487505216143</v>
+        <v>5.263692672579505</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5992132340942009</v>
+        <v>0.8594705465539697</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-985.5695640610431</v>
+        <v>-1005.099440201546</v>
       </c>
       <c r="C9" t="n">
-        <v>3.427785989539336e-46</v>
+        <v>3.730955771982421e-48</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.90915731947624</v>
+        <v>-22.33633374865101</v>
       </c>
       <c r="C10" t="n">
-        <v>5.726189509881491e-11</v>
+        <v>1.826175084883243e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>125.4571711587769</v>
+        <v>153.6981015992403</v>
       </c>
       <c r="C11" t="n">
-        <v>5.480788002192418e-16</v>
+        <v>2.081628592961357e-23</v>
       </c>
     </row>
     <row r="12">
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>332.5925541540774</v>
+        <v>344.4224708882009</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.008624269141729327</v>
+        <v>-0.5255024073728323</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04540125744896348</v>
+        <v>0.218217361871671</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.240304339327645e-06</v>
+        <v>0.5379990991220458</v>
       </c>
       <c r="C14" t="n">
-        <v>0.408774435616682</v>
+        <v>0.8014887411113235</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.95508797175635</v>
+        <v>-9.178540749552637</v>
       </c>
       <c r="C15" t="n">
-        <v>2.441573113634585e-09</v>
+        <v>4.422840866615254e-07</v>
       </c>
     </row>
     <row r="16">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.755840896025141</v>
+        <v>11.24361822292887</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0102433653963917</v>
+        <v>0.0009181760656442905</v>
       </c>
     </row>
     <row r="17">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>131.548715888237</v>
+        <v>2.042939258385516</v>
       </c>
       <c r="C17" t="n">
-        <v>0.740262353678259</v>
+        <v>0.6050035844635817</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6651.852770589054</v>
+        <v>6671.067680440879</v>
       </c>
       <c r="C2" t="n">
-        <v>9.668181145547725e-39</v>
+        <v>2.768809196719462e-39</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1065.935473523528</v>
+        <v>-938.3507292970338</v>
       </c>
       <c r="C3" t="n">
-        <v>5.876891279445658e-11</v>
+        <v>1.00167827768467e-08</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-744.7102057826407</v>
+        <v>-670.9364225207635</v>
       </c>
       <c r="C4" t="n">
-        <v>6.845916300177768e-13</v>
+        <v>7.401584670970026e-11</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-248.2931945790563</v>
+        <v>-137.7063481451527</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01252332868163259</v>
+        <v>0.1636109824836675</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-267.8826132601213</v>
+        <v>-186.7519835859373</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1515538711783371</v>
+        <v>0.3143170018613775</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>312.5845799638705</v>
+        <v>275.988857440973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002946223181693791</v>
+        <v>0.00843986342069941</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.275942962059672</v>
+        <v>-14.07707258837918</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8594300299906702</v>
+        <v>0.6370656344534195</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-943.9543734838973</v>
+        <v>-993.974103780379</v>
       </c>
       <c r="C9" t="n">
-        <v>2.427400615440499e-42</v>
+        <v>5.782830877058396e-47</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.74633451804354</v>
+        <v>-20.19216049831129</v>
       </c>
       <c r="C10" t="n">
-        <v>1.133285462893363e-11</v>
+        <v>3.684790212074375e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>135.6839603774609</v>
+        <v>140.3095347478775</v>
       </c>
       <c r="C11" t="n">
-        <v>1.468645294969448e-18</v>
+        <v>8.956963012133077e-20</v>
       </c>
     </row>
     <row r="12">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>341.9608626987927</v>
+        <v>339.8498553512475</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.002406304068621672</v>
+        <v>-0.3614789616774592</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5744343976005895</v>
+        <v>0.397932730346379</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.593944910771278e-07</v>
+        <v>1.359597119892728</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7811317103670059</v>
+        <v>0.529778885580735</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-11.13931236817058</v>
+        <v>-11.53070985024245</v>
       </c>
       <c r="C15" t="n">
-        <v>1.312423228569347e-09</v>
+        <v>2.230431876169124e-10</v>
       </c>
     </row>
     <row r="16">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.90417377757619</v>
+        <v>10.56522193302541</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001348918623261685</v>
+        <v>0.001963188845680638</v>
       </c>
     </row>
     <row r="17">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-582.7801448089476</v>
+        <v>-4.255589030647251</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1430461721675476</v>
+        <v>0.2807620032561098</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6781.090739339683</v>
+        <v>7352.91768528564</v>
       </c>
       <c r="C2" t="n">
-        <v>4.30984187497008e-40</v>
+        <v>8.623100206896412e-48</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1242.071224930298</v>
+        <v>-1287.514497460252</v>
       </c>
       <c r="C3" t="n">
-        <v>2.043570658619666e-14</v>
+        <v>1.99559585106772e-15</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-723.4257168987936</v>
+        <v>-685.3074154930291</v>
       </c>
       <c r="C4" t="n">
-        <v>2.351629297467007e-12</v>
+        <v>2.35336438879548e-11</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-273.9782181322968</v>
+        <v>-192.2299785793257</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005497881514440971</v>
+        <v>0.05010160371459849</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143.2346645230407</v>
+        <v>-200.7303256821402</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4455358788106493</v>
+        <v>0.2835544888530584</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.4861898498179</v>
+        <v>224.0880462467375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09150351313060308</v>
+        <v>0.0314612329027243</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.515092058430239</v>
+        <v>-8.024986565968884</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9595121767485759</v>
+        <v>0.7868734110831788</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1061.189012237978</v>
+        <v>-1031.581903053682</v>
       </c>
       <c r="C9" t="n">
-        <v>2.899434728430444e-53</v>
+        <v>6.11566780883178e-51</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.04143267206438</v>
+        <v>-20.77187164051387</v>
       </c>
       <c r="C10" t="n">
-        <v>4.909267492043533e-13</v>
+        <v>6.842557190650841e-12</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>135.8764326464449</v>
+        <v>126.47790854447</v>
       </c>
       <c r="C11" t="n">
-        <v>2.293653702514525e-18</v>
+        <v>1.503344275090896e-16</v>
       </c>
     </row>
     <row r="12">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>333.1428193102266</v>
+        <v>328.0005029725354</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.005161795606442469</v>
+        <v>-0.7467799161282647</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2276831543645201</v>
+        <v>0.07975971291569886</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.081096159645704e-06</v>
+        <v>-3.251369815378544</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4428652137619716</v>
+        <v>0.1432444433590184</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.39081337589394</v>
+        <v>-12.70053342061551</v>
       </c>
       <c r="C15" t="n">
-        <v>1.386197455487134e-08</v>
+        <v>2.232118547549782e-12</v>
       </c>
     </row>
     <row r="16">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.45043604455092</v>
+        <v>7.726962540774807</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0008253536817267825</v>
+        <v>0.02268800744855883</v>
       </c>
     </row>
     <row r="17">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-226.6295216412591</v>
+        <v>-3.8086305770588</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5661155042409891</v>
+        <v>0.335047790735192</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6094.920087567732</v>
+        <v>6319.16842747124</v>
       </c>
       <c r="C2" t="n">
-        <v>7.352149910223447e-33</v>
+        <v>1.346150261302954e-35</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1221.521548393238</v>
+        <v>-1118.810928298473</v>
       </c>
       <c r="C3" t="n">
-        <v>4.546658422909374e-14</v>
+        <v>6.453555470793817e-12</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-768.7875222075807</v>
+        <v>-650.5011244943557</v>
       </c>
       <c r="C4" t="n">
-        <v>7.132633531207707e-14</v>
+        <v>2.525090028372421e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-286.41243110903</v>
+        <v>-182.4479686372161</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003601573862083814</v>
+        <v>0.06425364278738863</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-111.6673633365225</v>
+        <v>-236.2258841417787</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5485150495538924</v>
+        <v>0.2026084576062239</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>228.5273507647595</v>
+        <v>237.2799889136438</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02899262044729045</v>
+        <v>0.02228514163199492</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.015326860929239</v>
+        <v>-22.16733570573945</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7875584216597018</v>
+        <v>0.4565362065937806</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1034.255044907981</v>
+        <v>-1043.279047929955</v>
       </c>
       <c r="C9" t="n">
-        <v>6.138729672282997e-51</v>
+        <v>8.708049574808535e-52</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.53208536357568</v>
+        <v>-20.70713618858903</v>
       </c>
       <c r="C10" t="n">
-        <v>1.467188485553945e-11</v>
+        <v>8.872531674921264e-12</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>137.7807884260446</v>
+        <v>134.3178270526006</v>
       </c>
       <c r="C11" t="n">
-        <v>3.627729880328225e-19</v>
+        <v>2.450265476143059e-18</v>
       </c>
     </row>
     <row r="12">
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>344.7248838115232</v>
+        <v>341.9607104306234</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.004130273576992551</v>
+        <v>-0.3591898822263668</v>
       </c>
       <c r="C13" t="n">
-        <v>0.333982064937924</v>
+        <v>0.3999055837811746</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.010177908438262e-06</v>
+        <v>-1.752210935060663</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7084916923821072</v>
+        <v>0.4128926497719417</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.645426916336817</v>
+        <v>-9.662910329837047</v>
       </c>
       <c r="C15" t="n">
-        <v>1.288857263689615e-07</v>
+        <v>1.081403679899278e-07</v>
       </c>
     </row>
     <row r="16">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.83742187836213</v>
+        <v>13.96042342964461</v>
       </c>
       <c r="C16" t="n">
-        <v>3.332821897480545e-06</v>
+        <v>4.206897610173257e-05</v>
       </c>
     </row>
     <row r="17">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>271.7793675766798</v>
+        <v>-0.5959450327424918</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4918644959629651</v>
+        <v>0.880818031254778</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6381.578871680379</v>
+        <v>6169.233897798327</v>
       </c>
       <c r="C2" t="n">
-        <v>1.600834450600866e-35</v>
+        <v>5.335320837892103e-34</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1044.718500431828</v>
+        <v>-1247.575673616411</v>
       </c>
       <c r="C3" t="n">
-        <v>2.115903559519045e-10</v>
+        <v>1.560474236821657e-14</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-722.1958781475671</v>
+        <v>-719.353066980536</v>
       </c>
       <c r="C4" t="n">
-        <v>2.356903072960209e-12</v>
+        <v>3.318335684535885e-12</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-253.3411451107264</v>
+        <v>-275.6902913859712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01025563359721282</v>
+        <v>0.00532021949083057</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123.1181079810877</v>
+        <v>-204.7636272322157</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5085168484999746</v>
+        <v>0.2769430188290857</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>282.9259375615384</v>
+        <v>263.4364273101731</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00679388493068932</v>
+        <v>0.0115114828776838</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-51.60112558021333</v>
+        <v>-20.36014933357867</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08283093706840562</v>
+        <v>0.4938616957067034</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1030.489095736427</v>
+        <v>-1078.511930539756</v>
       </c>
       <c r="C9" t="n">
-        <v>2.276401602793458e-50</v>
+        <v>5.290164701595425e-55</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.41050198570411</v>
+        <v>-22.69343957229029</v>
       </c>
       <c r="C10" t="n">
-        <v>1.864732342153314e-13</v>
+        <v>8.834465988301143e-14</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.7207596228465</v>
+        <v>124.3081199579972</v>
       </c>
       <c r="C11" t="n">
-        <v>1.028430878319005e-17</v>
+        <v>5.988811669320315e-16</v>
       </c>
     </row>
     <row r="12">
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>345.9038189954766</v>
+        <v>349.2961297896154</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.005079679886835293</v>
+        <v>-0.1025405850770524</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2370304435513136</v>
+        <v>0.8110170487268247</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.261654953865476e-06</v>
+        <v>-0.2905269259911432</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2327854872903011</v>
+        <v>0.8933070435669432</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.156677284805724</v>
+        <v>-8.829627572931688</v>
       </c>
       <c r="C15" t="n">
-        <v>5.945336653816916e-07</v>
+        <v>1.278045437166082e-06</v>
       </c>
     </row>
     <row r="16">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.39287438784989</v>
+        <v>15.03539655452537</v>
       </c>
       <c r="C16" t="n">
-        <v>7.83537315837833e-06</v>
+        <v>9.651081851671318e-06</v>
       </c>
     </row>
     <row r="17">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-133.2878974139085</v>
+        <v>2.940521461974541</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7365113726799819</v>
+        <v>0.4591464522944939</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6733.867793029806</v>
+        <v>6998.278680631</v>
       </c>
       <c r="C2" t="n">
-        <v>7.616800619684081e-40</v>
+        <v>9.51976065458213e-43</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1253.264365359743</v>
+        <v>-1180.358653984282</v>
       </c>
       <c r="C3" t="n">
-        <v>2.039143086694598e-14</v>
+        <v>4.181992738419467e-13</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-805.8999302143807</v>
+        <v>-702.2552263784942</v>
       </c>
       <c r="C4" t="n">
-        <v>7.139841022901046e-15</v>
+        <v>1.012857309971133e-11</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-300.1751401317877</v>
+        <v>-279.0885135002393</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002460608821855693</v>
+        <v>0.004783944623838595</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87.9091159027214</v>
+        <v>-165.4343647933878</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6331778684880309</v>
+        <v>0.3710377043992307</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>203.4099595295772</v>
+        <v>174.5529250025418</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05140413598513412</v>
+        <v>0.0960065714086562</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-15.84469978286127</v>
+        <v>-5.404990252051736</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5942199110016637</v>
+        <v>0.8564421330460743</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1033.919251397151</v>
+        <v>-1036.250302442144</v>
       </c>
       <c r="C9" t="n">
-        <v>1.122882583377749e-50</v>
+        <v>1.391738271021227e-50</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.36572754244016</v>
+        <v>-23.08792452025538</v>
       </c>
       <c r="C10" t="n">
-        <v>2.055746929206542e-13</v>
+        <v>4.69970436086083e-14</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>130.6138903981522</v>
+        <v>136.7416580119391</v>
       </c>
       <c r="C11" t="n">
-        <v>1.329878085186903e-17</v>
+        <v>1.001372312098046e-18</v>
       </c>
     </row>
     <row r="12">
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>343.5924935346344</v>
+        <v>333.5707999976524</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.002836844453582097</v>
+        <v>-0.7551812123204946</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5085648610343585</v>
+        <v>0.07973557110538144</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.87154043881884e-07</v>
+        <v>-0.4709740015570993</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7177302102076614</v>
+        <v>0.829580874073276</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.911571204329393</v>
+        <v>-10.41209039759238</v>
       </c>
       <c r="C15" t="n">
-        <v>6.022179513629899e-08</v>
+        <v>1.232649502247451e-08</v>
       </c>
     </row>
     <row r="16">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.62034131722424</v>
+        <v>10.62414241465312</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0006078519285136973</v>
+        <v>0.001871240675404031</v>
       </c>
     </row>
     <row r="17">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-503.4983393010962</v>
+        <v>-5.364627558586577</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2036681026559839</v>
+        <v>0.1778474647995923</v>
       </c>
     </row>
   </sheetData>
